--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -19,6 +19,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>娃娃的</t>
     </r>
     <r>
@@ -111,10 +117,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,21 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -177,16 +168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -199,46 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +236,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -307,25 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,151 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +497,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,16 +549,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,35 +580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,166 +597,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,12 +755,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,7 +1126,8 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1151,128 +1145,128 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>40001</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>40002</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>40003</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>40004</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>40005</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>40006</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>40007</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>40008</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -246,12 +246,40 @@
     <t>hero_11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>说明介绍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胖小子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名秋山车神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐的小花喵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云呢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +317,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +364,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -648,7 +686,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +702,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,8 +722,11 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>40001</v>
       </c>
@@ -698,8 +742,11 @@
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>40002</v>
       </c>
@@ -715,8 +762,11 @@
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>40003</v>
       </c>
@@ -732,8 +782,11 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>40004</v>
       </c>
@@ -749,8 +802,11 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>40005</v>
       </c>
@@ -766,8 +822,11 @@
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>40006</v>
       </c>
@@ -784,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>40007</v>
       </c>
@@ -801,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>40008</v>
       </c>
@@ -818,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>40009</v>
       </c>
@@ -835,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>40010</v>
       </c>
@@ -852,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>40011</v>
       </c>
@@ -869,7 +928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>40012</v>
       </c>
@@ -886,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>40013</v>
       </c>
@@ -903,7 +962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>40014</v>
       </c>
@@ -1195,7 +1254,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -272,6 +272,34 @@
   </si>
   <si>
     <t>白云呢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画所在的组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll_movieclip02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll_movieclip03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll_movieclip04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll_movieclip05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doll_movieclip06</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -681,12 +709,12 @@
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="58.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,11 +730,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,11 +753,14 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>40001</v>
       </c>
@@ -742,11 +776,14 @@
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>40002</v>
       </c>
@@ -762,11 +799,14 @@
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>40003</v>
       </c>
@@ -782,11 +822,14 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>40004</v>
       </c>
@@ -802,11 +845,14 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>40005</v>
       </c>
@@ -822,11 +868,14 @@
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>40006</v>
       </c>
@@ -842,8 +891,11 @@
       <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>40007</v>
       </c>
@@ -859,8 +911,11 @@
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>40008</v>
       </c>
@@ -876,8 +931,11 @@
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>40009</v>
       </c>
@@ -893,8 +951,11 @@
       <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>40010</v>
       </c>
@@ -910,8 +971,11 @@
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>40011</v>
       </c>
@@ -927,8 +991,11 @@
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>40012</v>
       </c>
@@ -944,8 +1011,11 @@
       <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>40013</v>
       </c>
@@ -961,8 +1031,11 @@
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>40014</v>
       </c>
@@ -978,8 +1051,11 @@
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>40015</v>
       </c>
@@ -995,8 +1071,11 @@
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>40016</v>
       </c>
@@ -1012,8 +1091,11 @@
       <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>40017</v>
       </c>
@@ -1029,8 +1111,11 @@
       <c r="E19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>40018</v>
       </c>
@@ -1046,8 +1131,11 @@
       <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>40019</v>
       </c>
@@ -1063,8 +1151,11 @@
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>40020</v>
       </c>
@@ -1080,8 +1171,11 @@
       <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>40021</v>
       </c>
@@ -1097,8 +1191,11 @@
       <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>40022</v>
       </c>
@@ -1114,8 +1211,11 @@
       <c r="E24" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>40023</v>
       </c>
@@ -1131,8 +1231,11 @@
       <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F25" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>40024</v>
       </c>
@@ -1148,8 +1251,11 @@
       <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>40025</v>
       </c>
@@ -1165,8 +1271,11 @@
       <c r="E27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>40026</v>
       </c>
@@ -1182,8 +1291,11 @@
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F28" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>40027</v>
       </c>
@@ -1199,8 +1311,11 @@
       <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F29" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>40028</v>
       </c>
@@ -1216,8 +1331,11 @@
       <c r="E30" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F30" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>40029</v>
       </c>
@@ -1233,8 +1351,11 @@
       <c r="E31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F31" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>40030</v>
       </c>
@@ -1249,6 +1370,9 @@
       </c>
       <c r="E32" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <r>
       <rPr>
@@ -62,51 +62,27 @@
     <t>胖娃娃</t>
   </si>
   <si>
-    <t>pet_0001</t>
-  </si>
-  <si>
     <t>皮蛋</t>
   </si>
   <si>
-    <t>pet_0002</t>
-  </si>
-  <si>
     <t>大头</t>
   </si>
   <si>
-    <t>pet_0003</t>
-  </si>
-  <si>
     <t>花生</t>
   </si>
   <si>
-    <t>pet_0004</t>
-  </si>
-  <si>
     <t>黑土</t>
   </si>
   <si>
-    <t>pet_0005</t>
-  </si>
-  <si>
     <t>胖虎</t>
   </si>
   <si>
-    <t>pet_0006</t>
-  </si>
-  <si>
     <t>大熊</t>
   </si>
   <si>
-    <t>pet_0007</t>
-  </si>
-  <si>
     <t>丸子</t>
   </si>
   <si>
-    <t>pet_0008</t>
-  </si>
-  <si>
     <t>猫头鹰</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -283,24 +259,99 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>doll_movieclip02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>doll_movieclip03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>doll_movieclip04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>doll_movieclip05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>doll_movieclip06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>elf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>00501a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>00502a</t>
+  </si>
+  <si>
+    <t>00503a</t>
+  </si>
+  <si>
+    <t>00504a</t>
+  </si>
+  <si>
+    <t>00505a</t>
+  </si>
+  <si>
+    <t>00506a</t>
+  </si>
+  <si>
+    <t>00507a</t>
+  </si>
+  <si>
+    <t>00508a</t>
+  </si>
+  <si>
+    <t>00509a</t>
+  </si>
+  <si>
+    <t>00510a</t>
+  </si>
+  <si>
+    <t>00511a</t>
+  </si>
+  <si>
+    <t>00512a</t>
+  </si>
+  <si>
+    <t>00513a</t>
+  </si>
+  <si>
+    <t>00514a</t>
+  </si>
+  <si>
+    <t>00515a</t>
+  </si>
+  <si>
+    <t>00516a</t>
+  </si>
+  <si>
+    <t>00517a</t>
+  </si>
+  <si>
+    <t>00518a</t>
+  </si>
+  <si>
+    <t>00519a</t>
+  </si>
+  <si>
+    <t>00520a</t>
+  </si>
+  <si>
+    <t>00521a</t>
+  </si>
+  <si>
+    <t>00522a</t>
+  </si>
+  <si>
+    <t>00523a</t>
+  </si>
+  <si>
+    <t>00524a</t>
+  </si>
+  <si>
+    <t>00525a</t>
+  </si>
+  <si>
+    <t>00526a</t>
+  </si>
+  <si>
+    <t>00527a</t>
+  </si>
+  <si>
+    <t>00528a</t>
+  </si>
+  <si>
+    <t>00529a</t>
+  </si>
+  <si>
+    <t>00530a</t>
   </si>
 </sst>
 </file>
@@ -375,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +446,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +764,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -709,7 +772,8 @@
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="58.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="58.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -722,19 +786,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -745,19 +809,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -771,16 +835,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -788,22 +852,22 @@
         <v>40002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -811,22 +875,22 @@
         <v>40003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -834,22 +898,22 @@
         <v>40004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -857,22 +921,22 @@
         <v>40005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -880,19 +944,19 @@
         <v>40006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -900,19 +964,19 @@
         <v>40007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -920,19 +984,19 @@
         <v>40008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -940,19 +1004,19 @@
         <v>40009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -960,19 +1024,19 @@
         <v>40010</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -980,19 +1044,19 @@
         <v>40011</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -1000,19 +1064,19 @@
         <v>40012</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -1020,19 +1084,19 @@
         <v>40013</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
@@ -1040,19 +1104,19 @@
         <v>40014</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1060,19 +1124,19 @@
         <v>40015</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1080,19 +1144,19 @@
         <v>40016</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1100,19 +1164,19 @@
         <v>40017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1120,19 +1184,19 @@
         <v>40018</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1140,19 +1204,19 @@
         <v>40019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1160,19 +1224,19 @@
         <v>40020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1180,19 +1244,19 @@
         <v>40021</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1200,19 +1264,19 @@
         <v>40022</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1220,19 +1284,19 @@
         <v>40023</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1240,19 +1304,19 @@
         <v>40024</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1260,19 +1324,19 @@
         <v>40025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1280,19 +1344,19 @@
         <v>40026</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1300,19 +1364,19 @@
         <v>40027</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1320,19 +1384,19 @@
         <v>40028</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1340,19 +1404,19 @@
         <v>40029</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -1360,19 +1424,19 @@
         <v>40030</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -352,6 +352,22 @@
   </si>
   <si>
     <t>00530a</t>
+  </si>
+  <si>
+    <t>anchorX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchorY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -761,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -778,7 +794,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,8 +816,14 @@
       <c r="G1" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,8 +845,14 @@
       <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>40001</v>
       </c>
@@ -847,7 +875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>40002</v>
       </c>
@@ -869,8 +897,14 @@
       <c r="G4" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H4" s="1">
+        <v>-15.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-15.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>40003</v>
       </c>
@@ -893,7 +927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>40004</v>
       </c>
@@ -916,7 +950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>40005</v>
       </c>
@@ -939,7 +973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>40006</v>
       </c>
@@ -959,7 +993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>40007</v>
       </c>
@@ -979,7 +1013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>40008</v>
       </c>
@@ -999,7 +1033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>40009</v>
       </c>
@@ -1019,7 +1053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>40010</v>
       </c>
@@ -1039,7 +1073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>40011</v>
       </c>
@@ -1059,7 +1093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>40012</v>
       </c>
@@ -1079,7 +1113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>40013</v>
       </c>
@@ -1099,7 +1133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>40014</v>
       </c>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -327,46 +327,47 @@
     <t>00521a</t>
   </si>
   <si>
+    <t>00523a</t>
+  </si>
+  <si>
+    <t>00524a</t>
+  </si>
+  <si>
+    <t>00525a</t>
+  </si>
+  <si>
+    <t>00526a</t>
+  </si>
+  <si>
+    <t>00527a</t>
+  </si>
+  <si>
+    <t>00528a</t>
+  </si>
+  <si>
+    <t>00529a</t>
+  </si>
+  <si>
+    <t>00530a</t>
+  </si>
+  <si>
+    <t>anchorY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>00522a</t>
-  </si>
-  <si>
-    <t>00523a</t>
-  </si>
-  <si>
-    <t>00524a</t>
-  </si>
-  <si>
-    <t>00525a</t>
-  </si>
-  <si>
-    <t>00526a</t>
-  </si>
-  <si>
-    <t>00527a</t>
-  </si>
-  <si>
-    <t>00528a</t>
-  </si>
-  <si>
-    <t>00529a</t>
-  </si>
-  <si>
-    <t>00530a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>anchorX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchorY</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水平偏移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直偏移</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +781,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -788,8 +789,8 @@
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="58.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -817,10 +818,10 @@
         <v>52</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -846,10 +847,10 @@
         <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -874,6 +875,12 @@
       <c r="G3" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="H3" s="1">
+        <v>-9.08</v>
+      </c>
+      <c r="I3" s="1">
+        <v>13.63</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -898,10 +905,10 @@
         <v>55</v>
       </c>
       <c r="H4" s="1">
-        <v>-15.74</v>
+        <v>-13.59</v>
       </c>
       <c r="I4" s="1">
-        <v>-15.14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -926,6 +933,12 @@
       <c r="G5" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="H5" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -949,6 +962,12 @@
       <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="H6" s="1">
+        <v>-12.8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -972,6 +991,12 @@
       <c r="G7" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -992,6 +1017,12 @@
       <c r="F8" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H8" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -1012,6 +1043,12 @@
       <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H9" s="1">
+        <v>-15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -1032,6 +1069,12 @@
       <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H10" s="1">
+        <v>-6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1052,6 +1095,12 @@
       <c r="F11" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H11" s="1">
+        <v>-14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -1072,6 +1121,12 @@
       <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H12" s="1">
+        <v>-15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1092,6 +1147,12 @@
       <c r="F13" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H13" s="1">
+        <v>-17</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1112,6 +1173,12 @@
       <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H14" s="1">
+        <v>-13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -1132,6 +1199,12 @@
       <c r="F15" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H15" s="1">
+        <v>-7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -1152,8 +1225,14 @@
       <c r="F16" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H16" s="1">
+        <v>-10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>40015</v>
       </c>
@@ -1172,8 +1251,14 @@
       <c r="F17" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>40016</v>
       </c>
@@ -1192,8 +1277,14 @@
       <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H18" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>40017</v>
       </c>
@@ -1212,8 +1303,14 @@
       <c r="F19" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>40018</v>
       </c>
@@ -1232,8 +1329,14 @@
       <c r="F20" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H20" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>40019</v>
       </c>
@@ -1252,8 +1355,14 @@
       <c r="F21" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H21" s="1">
+        <v>-8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>40020</v>
       </c>
@@ -1272,8 +1381,14 @@
       <c r="F22" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H22" s="1">
+        <v>-5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>40021</v>
       </c>
@@ -1292,8 +1407,14 @@
       <c r="F23" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H23" s="1">
+        <v>-12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>40022</v>
       </c>
@@ -1307,13 +1428,19 @@
         <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H24" s="1">
+        <v>-13</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>40023</v>
       </c>
@@ -1327,13 +1454,19 @@
         <v>40</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>40024</v>
       </c>
@@ -1347,13 +1480,19 @@
         <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>40025</v>
       </c>
@@ -1367,13 +1506,19 @@
         <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H27" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>40026</v>
       </c>
@@ -1387,13 +1532,19 @@
         <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H28" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>40027</v>
       </c>
@@ -1407,13 +1558,19 @@
         <v>40</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H29" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>40028</v>
       </c>
@@ -1427,13 +1584,19 @@
         <v>40</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H30" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>40029</v>
       </c>
@@ -1447,13 +1610,19 @@
         <v>40</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="H31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>40030</v>
       </c>
@@ -1467,10 +1636,16 @@
         <v>40</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -879,7 +879,7 @@
         <v>-9.08</v>
       </c>
       <c r="I3" s="1">
-        <v>13.63</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -905,10 +905,10 @@
         <v>55</v>
       </c>
       <c r="H4" s="1">
-        <v>-13.59</v>
+        <v>-16.43</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -934,10 +934,10 @@
         <v>56</v>
       </c>
       <c r="H5" s="1">
-        <v>-6</v>
+        <v>-5.1100000000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>4.5</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -963,10 +963,10 @@
         <v>57</v>
       </c>
       <c r="H6" s="1">
-        <v>-12.8</v>
+        <v>-15.67</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -992,10 +992,10 @@
         <v>58</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I7" s="1">
-        <v>3.8</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1018,10 +1018,10 @@
         <v>61</v>
       </c>
       <c r="H8" s="1">
-        <v>-5</v>
+        <v>-5.26</v>
       </c>
       <c r="I8" s="1">
-        <v>8</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1044,10 +1044,10 @@
         <v>61</v>
       </c>
       <c r="H9" s="1">
-        <v>-15</v>
+        <v>-19.64</v>
       </c>
       <c r="I9" s="1">
-        <v>11</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="1">
-        <v>-6</v>
+        <v>-7.33</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="1">
-        <v>-14</v>
+        <v>-18.170000000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>7</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="H12" s="1">
-        <v>-15</v>
+        <v>-18.93</v>
       </c>
       <c r="I12" s="1">
-        <v>12</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1148,10 +1148,10 @@
         <v>61</v>
       </c>
       <c r="H13" s="1">
-        <v>-17</v>
+        <v>-18.93</v>
       </c>
       <c r="I13" s="1">
-        <v>12</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1174,10 +1174,10 @@
         <v>61</v>
       </c>
       <c r="H14" s="1">
-        <v>-13</v>
+        <v>-19.27</v>
       </c>
       <c r="I14" s="1">
-        <v>9</v>
+        <v>16.649999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1200,10 +1200,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="1">
-        <v>-7</v>
+        <v>-10.98</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1226,10 +1226,10 @@
         <v>61</v>
       </c>
       <c r="H16" s="1">
-        <v>-10</v>
+        <v>-14.35</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1252,10 +1252,10 @@
         <v>61</v>
       </c>
       <c r="H17" s="1">
-        <v>-2</v>
+        <v>-6.96</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1278,10 +1278,10 @@
         <v>61</v>
       </c>
       <c r="H18" s="1">
-        <v>-3</v>
+        <v>-4.88</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1304,10 +1304,10 @@
         <v>61</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1330,10 +1330,10 @@
         <v>61</v>
       </c>
       <c r="H20" s="1">
-        <v>-3</v>
+        <v>-3.41</v>
       </c>
       <c r="I20" s="1">
-        <v>-4</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1356,10 +1356,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="1">
-        <v>-8</v>
+        <v>-9.24</v>
       </c>
       <c r="I21" s="1">
-        <v>6</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1382,10 +1382,10 @@
         <v>61</v>
       </c>
       <c r="H22" s="1">
-        <v>-5</v>
+        <v>-5.26</v>
       </c>
       <c r="I22" s="1">
-        <v>3</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1408,10 +1408,10 @@
         <v>61</v>
       </c>
       <c r="H23" s="1">
-        <v>-12</v>
+        <v>-16.62</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1434,10 +1434,10 @@
         <v>61</v>
       </c>
       <c r="H24" s="1">
-        <v>-13</v>
+        <v>-13.63</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1460,10 +1460,10 @@
         <v>61</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>2.46</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1486,10 +1486,10 @@
         <v>61</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="I26" s="1">
-        <v>-3</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1512,10 +1512,10 @@
         <v>61</v>
       </c>
       <c r="H27" s="1">
-        <v>-4</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="I27" s="1">
-        <v>-6</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1538,10 +1538,10 @@
         <v>61</v>
       </c>
       <c r="H28" s="1">
-        <v>-2</v>
+        <v>-2.27</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1564,10 +1564,10 @@
         <v>61</v>
       </c>
       <c r="H29" s="1">
-        <v>-3</v>
+        <v>-3.75</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="H30" s="1">
-        <v>-4</v>
+        <v>-4.45</v>
       </c>
       <c r="I30" s="1">
-        <v>-4</v>
+        <v>-4.8899999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1616,10 +1616,10 @@
         <v>61</v>
       </c>
       <c r="H31" s="1">
-        <v>-1</v>
+        <v>-1.72</v>
       </c>
       <c r="I31" s="1">
-        <v>-5</v>
+        <v>-8.14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
@@ -1642,10 +1642,10 @@
         <v>61</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>-3.69</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -23,6 +23,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>娃娃的</t>
@@ -750,6 +751,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -762,11 +764,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1141,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -1551,6 +1551,14 @@
     <t>有趣的灵魂万里挑一，好看的皮囊只有我有。</t>
   </si>
   <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>a</t>
     </r>
@@ -1562,16 +1570,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>kt</t>
+      <t>tk</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>config_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1668,7 +1668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1691,6 +1691,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2882,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2921,12 +2924,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -2946,8 +2949,8 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>476</v>
+      <c r="H2" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="485">
   <si>
     <r>
       <rPr>
@@ -1574,12 +1574,40 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别(0 生产 1 战斗)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1623,6 +1651,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1668,7 +1702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1694,6 +1728,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2883,3974 +2935,4889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV152"/>
+  <dimension ref="A1:IW152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.25" style="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
+    <col min="11" max="257" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>40001</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
+      <c r="C3" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>40002</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>40003</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>40004</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>40005</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>40006</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>40007</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>40008</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>40009</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>40010</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>40011</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>40012</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>40013</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>40014</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>40015</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>40016</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>40017</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>40018</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>40019</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>40020</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>40021</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>40022</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="6">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
+      <c r="C24" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>40023</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="6">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
+      <c r="C25" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>40024</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>40025</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>40026</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D28" s="6">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>40027</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>40028</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>40029</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>40030</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D32" s="6">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>40031</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>40032</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D34" s="6">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>40033</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>40034</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>40035</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D37" s="6">
         <v>2</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>40036</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>40037</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D39" s="6">
         <v>2</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>40038</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D40" s="6">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40039</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
         <v>2</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>40040</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>40041</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>40042</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>40043</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>40044</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>40045</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>40046</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>40047</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
         <v>2</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>40048</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
         <v>2</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>40049</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="13">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>2</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>40050</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="13">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
         <v>2</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>40051</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="13">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>40052</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="13">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
         <v>2</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>40053</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="13">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
         <v>2</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40054</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="13">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
         <v>2</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>40055</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
         <v>2</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>40056</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
         <v>2</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>40057</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>40058</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="13">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
         <v>2</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>40059</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="13">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>40060</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="13">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
         <v>2</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>40061</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="13">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
         <v>2</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>40062</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="13">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
         <v>2</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>40063</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="6">
-        <v>4</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>14</v>
+      <c r="C65" s="13">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>4</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>40064</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="6">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>14</v>
+      <c r="C66" s="13">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>40065</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="6">
-        <v>4</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>14</v>
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>40066</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="6">
-        <v>4</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>14</v>
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>4</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>40067</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="6">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>14</v>
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>40068</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="6">
-        <v>4</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>14</v>
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>4</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>40069</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="6">
-        <v>4</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>14</v>
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>40070</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="6">
-        <v>4</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>14</v>
+      <c r="C72" s="13">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>40071</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="6">
-        <v>4</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>14</v>
+      <c r="C73" s="13">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>4</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>40072</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="6">
-        <v>4</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>14</v>
+      <c r="C74" s="13">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>4</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>40073</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="6">
-        <v>4</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>14</v>
+      <c r="C75" s="13">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>40074</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="6">
-        <v>4</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>14</v>
+      <c r="C76" s="13">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>4</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>40075</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C77" s="6">
-        <v>4</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>14</v>
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>4</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>40076</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C78" s="6">
-        <v>4</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>14</v>
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>4</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>40077</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="6">
-        <v>4</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>14</v>
+      <c r="C79" s="13">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6">
+        <v>4</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>40078</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="6">
-        <v>4</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>14</v>
+      <c r="C80" s="13">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>4</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>40079</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="6">
-        <v>4</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>14</v>
+      <c r="C81" s="13">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>4</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>40080</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="6">
-        <v>4</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>14</v>
+      <c r="C82" s="13">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>40081</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C83" s="6">
-        <v>4</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>14</v>
+      <c r="C83" s="13">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>40082</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C84" s="6">
-        <v>4</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>14</v>
+      <c r="C84" s="13">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6">
+        <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>40083</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="6">
-        <v>4</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>14</v>
+      <c r="C85" s="13">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6">
+        <v>4</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>40084</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="6">
-        <v>4</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>14</v>
+      <c r="C86" s="13">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6">
+        <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>40085</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="6">
-        <v>4</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>14</v>
+      <c r="C87" s="13">
+        <v>0</v>
+      </c>
+      <c r="D87" s="6">
+        <v>4</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>40086</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C88" s="6">
-        <v>4</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>14</v>
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
+      <c r="D88" s="6">
+        <v>4</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>40087</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C89" s="6">
-        <v>4</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>14</v>
+      <c r="C89" s="13">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6">
+        <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>40088</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C90" s="6">
-        <v>4</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>14</v>
+      <c r="C90" s="13">
+        <v>0</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>40089</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C91" s="6">
-        <v>4</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>14</v>
+      <c r="C91" s="13">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>40090</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="6">
-        <v>4</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>14</v>
+      <c r="C92" s="13">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <v>4</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>40091</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C93" s="6">
-        <v>4</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>14</v>
+      <c r="C93" s="13">
+        <v>0</v>
+      </c>
+      <c r="D93" s="6">
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>40092</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C94" s="6">
-        <v>4</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>14</v>
+      <c r="C94" s="13">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>40093</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C95" s="6">
-        <v>4</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>14</v>
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>40094</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C96" s="6">
-        <v>4</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>14</v>
+      <c r="C96" s="13">
+        <v>0</v>
+      </c>
+      <c r="D96" s="6">
+        <v>4</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>40095</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C97" s="6">
-        <v>4</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>14</v>
+      <c r="C97" s="13">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6">
+        <v>4</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>40096</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="6">
-        <v>4</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>14</v>
+      <c r="C98" s="13">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>4</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>40097</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="6">
-        <v>4</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>14</v>
+      <c r="C99" s="13">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6">
+        <v>4</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>40098</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="6">
-        <v>4</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>14</v>
+      <c r="C100" s="13">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>40099</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="6">
-        <v>4</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>14</v>
+      <c r="C101" s="13">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>40100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="6">
-        <v>4</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>14</v>
+      <c r="C102" s="13">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>40101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="6">
-        <v>4</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>14</v>
+      <c r="C103" s="13">
+        <v>0</v>
+      </c>
+      <c r="D103" s="6">
+        <v>4</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>40102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="6">
-        <v>4</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>14</v>
+      <c r="C104" s="13">
+        <v>0</v>
+      </c>
+      <c r="D104" s="6">
+        <v>4</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>40103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="6">
-        <v>4</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>14</v>
+      <c r="C105" s="13">
+        <v>0</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>40104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C106" s="6">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>14</v>
+      <c r="C106" s="13">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6">
+        <v>4</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>40105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C107" s="6">
-        <v>4</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>14</v>
+      <c r="C107" s="13">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H107" s="1">
+      <c r="I107" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>40106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="6">
-        <v>4</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>14</v>
+      <c r="C108" s="13">
+        <v>0</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H108" s="1">
+      <c r="I108" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>40107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C109" s="6">
-        <v>4</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>14</v>
+      <c r="C109" s="13">
+        <v>0</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>40108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C110" s="6">
-        <v>4</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>14</v>
+      <c r="C110" s="13">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6">
+        <v>4</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>40109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C111" s="6">
-        <v>4</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>14</v>
+      <c r="C111" s="13">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>40110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C112" s="6">
-        <v>4</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>14</v>
+      <c r="C112" s="13">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6">
+        <v>4</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>40111</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C113" s="6">
-        <v>4</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>14</v>
+      <c r="C113" s="13">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6">
+        <v>4</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H113" s="1">
+      <c r="I113" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>40112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="6">
-        <v>4</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>14</v>
+      <c r="C114" s="13">
+        <v>0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>4</v>
       </c>
       <c r="E114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H114" s="1">
+      <c r="I114" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>40113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C115" s="6">
-        <v>4</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>14</v>
+      <c r="C115" s="13">
+        <v>0</v>
+      </c>
+      <c r="D115" s="6">
+        <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>40114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="6">
-        <v>4</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>14</v>
+      <c r="C116" s="13">
+        <v>0</v>
+      </c>
+      <c r="D116" s="6">
+        <v>4</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I116" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>40115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C117" s="6">
-        <v>4</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>14</v>
+      <c r="C117" s="13">
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>4</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H117" s="1">
+      <c r="I117" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>40116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C118" s="6">
-        <v>4</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>14</v>
+      <c r="C118" s="13">
+        <v>0</v>
+      </c>
+      <c r="D118" s="6">
+        <v>4</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H118" s="1">
+      <c r="I118" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>40117</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="6">
-        <v>4</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>14</v>
+      <c r="C119" s="13">
+        <v>0</v>
+      </c>
+      <c r="D119" s="6">
+        <v>4</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>40118</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C120" s="6">
-        <v>4</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>14</v>
+      <c r="C120" s="13">
+        <v>0</v>
+      </c>
+      <c r="D120" s="6">
+        <v>4</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>40119</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="6">
-        <v>4</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>14</v>
+      <c r="C121" s="13">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6">
+        <v>4</v>
       </c>
       <c r="E121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>40120</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="6">
-        <v>4</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>14</v>
+      <c r="C122" s="13">
+        <v>0</v>
+      </c>
+      <c r="D122" s="6">
+        <v>4</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>40121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="6">
-        <v>4</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>14</v>
+      <c r="C123" s="13">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6">
+        <v>4</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>40122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="6">
-        <v>4</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>14</v>
+      <c r="C124" s="13">
+        <v>0</v>
+      </c>
+      <c r="D124" s="6">
+        <v>4</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H124" s="1">
+      <c r="I124" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>40123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="6">
-        <v>4</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>14</v>
+      <c r="C125" s="13">
+        <v>0</v>
+      </c>
+      <c r="D125" s="6">
+        <v>4</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H125" s="1">
+      <c r="I125" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>40124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="6">
-        <v>4</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>14</v>
+      <c r="C126" s="13">
+        <v>0</v>
+      </c>
+      <c r="D126" s="6">
+        <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H126" s="1">
+      <c r="I126" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>40125</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="6">
-        <v>4</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>14</v>
+      <c r="C127" s="13">
+        <v>0</v>
+      </c>
+      <c r="D127" s="6">
+        <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H127" s="1">
+      <c r="I127" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>40126</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C128" s="6">
-        <v>4</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>14</v>
+      <c r="C128" s="13">
+        <v>0</v>
+      </c>
+      <c r="D128" s="6">
+        <v>4</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H128" s="1">
+      <c r="I128" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>40127</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C129" s="6">
-        <v>4</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>14</v>
+      <c r="C129" s="13">
+        <v>0</v>
+      </c>
+      <c r="D129" s="6">
+        <v>4</v>
       </c>
       <c r="E129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H129" s="1">
+      <c r="I129" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>40128</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C130" s="6">
-        <v>4</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>14</v>
+      <c r="C130" s="13">
+        <v>0</v>
+      </c>
+      <c r="D130" s="6">
+        <v>4</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H130" s="1">
+      <c r="I130" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>40129</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C131" s="6">
-        <v>4</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>14</v>
+      <c r="C131" s="13">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6">
+        <v>4</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H131" s="1">
+      <c r="I131" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>40130</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C132" s="6">
-        <v>4</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>14</v>
+      <c r="C132" s="13">
+        <v>0</v>
+      </c>
+      <c r="D132" s="6">
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H132" s="1">
+      <c r="I132" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>40131</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C133" s="6">
-        <v>4</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>14</v>
+      <c r="C133" s="13">
+        <v>0</v>
+      </c>
+      <c r="D133" s="6">
+        <v>4</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H133" s="1">
+      <c r="I133" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>40132</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C134" s="6">
-        <v>4</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>14</v>
+      <c r="C134" s="13">
+        <v>0</v>
+      </c>
+      <c r="D134" s="6">
+        <v>4</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H134" s="1">
+      <c r="I134" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>40133</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C135" s="6">
-        <v>4</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>14</v>
+      <c r="C135" s="13">
+        <v>0</v>
+      </c>
+      <c r="D135" s="6">
+        <v>4</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H135" s="1">
+      <c r="I135" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>40134</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C136" s="6">
-        <v>4</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>14</v>
+      <c r="C136" s="13">
+        <v>0</v>
+      </c>
+      <c r="D136" s="6">
+        <v>4</v>
       </c>
       <c r="E136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>40135</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C137" s="6">
-        <v>4</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>14</v>
+      <c r="C137" s="13">
+        <v>0</v>
+      </c>
+      <c r="D137" s="6">
+        <v>4</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H137" s="1">
+      <c r="I137" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>40136</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C138" s="6">
-        <v>4</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>14</v>
+      <c r="C138" s="13">
+        <v>0</v>
+      </c>
+      <c r="D138" s="6">
+        <v>4</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H138" s="1">
+      <c r="I138" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>40137</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C139" s="6">
-        <v>4</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>14</v>
+      <c r="C139" s="13">
+        <v>0</v>
+      </c>
+      <c r="D139" s="6">
+        <v>4</v>
       </c>
       <c r="E139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H139" s="1">
+      <c r="I139" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>40138</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C140" s="6">
-        <v>4</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>14</v>
+      <c r="C140" s="13">
+        <v>0</v>
+      </c>
+      <c r="D140" s="6">
+        <v>4</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H140" s="1">
+      <c r="I140" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>40139</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C141" s="6">
-        <v>4</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>14</v>
+      <c r="C141" s="13">
+        <v>0</v>
+      </c>
+      <c r="D141" s="6">
+        <v>4</v>
       </c>
       <c r="E141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H141" s="1">
+      <c r="I141" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>40140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C142" s="6">
-        <v>4</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>14</v>
+      <c r="C142" s="13">
+        <v>0</v>
+      </c>
+      <c r="D142" s="6">
+        <v>4</v>
       </c>
       <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H142" s="1">
+      <c r="I142" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>40141</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C143" s="6">
-        <v>4</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>14</v>
+      <c r="C143" s="13">
+        <v>0</v>
+      </c>
+      <c r="D143" s="6">
+        <v>4</v>
       </c>
       <c r="E143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H143" s="1">
+      <c r="I143" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>40142</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C144" s="6">
-        <v>4</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>14</v>
+      <c r="C144" s="13">
+        <v>0</v>
+      </c>
+      <c r="D144" s="6">
+        <v>4</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H144" s="1">
+      <c r="I144" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>40143</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C145" s="6">
-        <v>4</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>14</v>
+      <c r="C145" s="13">
+        <v>0</v>
+      </c>
+      <c r="D145" s="6">
+        <v>4</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H145" s="1">
+      <c r="I145" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>40144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C146" s="6">
-        <v>4</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>14</v>
+      <c r="C146" s="13">
+        <v>0</v>
+      </c>
+      <c r="D146" s="6">
+        <v>4</v>
       </c>
       <c r="E146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="G146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H146" s="1">
+      <c r="I146" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>40145</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C147" s="6">
-        <v>4</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>14</v>
+      <c r="C147" s="13">
+        <v>0</v>
+      </c>
+      <c r="D147" s="6">
+        <v>4</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H147" s="1">
+      <c r="I147" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>40146</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C148" s="6">
-        <v>4</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>14</v>
+      <c r="C148" s="13">
+        <v>0</v>
+      </c>
+      <c r="D148" s="6">
+        <v>4</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="G148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H148" s="1">
+      <c r="I148" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>40147</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C149" s="6">
-        <v>4</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>14</v>
+      <c r="C149" s="13">
+        <v>0</v>
+      </c>
+      <c r="D149" s="6">
+        <v>4</v>
       </c>
       <c r="E149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H149" s="1">
+      <c r="I149" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>40148</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C150" s="6">
-        <v>4</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>14</v>
+      <c r="C150" s="13">
+        <v>0</v>
+      </c>
+      <c r="D150" s="6">
+        <v>4</v>
       </c>
       <c r="E150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="G150" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H150" s="1">
+      <c r="I150" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>40149</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C151" s="6">
-        <v>4</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>14</v>
+      <c r="C151" s="13">
+        <v>0</v>
+      </c>
+      <c r="D151" s="6">
+        <v>4</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H151" s="1">
+      <c r="I151" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>40150</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C152" s="6">
-        <v>4</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>14</v>
+      <c r="C152" s="13">
+        <v>0</v>
+      </c>
+      <c r="D152" s="6">
+        <v>4</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H152" s="1">
+      <c r="I152" s="1">
         <v>40</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -1604,8 +1604,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1730,19 +1730,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3049,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3081,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3113,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3145,7 +3145,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3177,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3209,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3241,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3305,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3369,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3433,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3465,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3529,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3561,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3593,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3625,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3689,7 +3689,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3721,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3753,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3785,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3817,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3849,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3913,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3945,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3977,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,7 +4009,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4041,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4073,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4105,7 +4105,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4137,7 +4137,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4169,7 +4169,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4201,7 +4201,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4265,7 +4265,7 @@
         <v>15</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4297,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4329,7 +4329,7 @@
         <v>15</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4361,7 +4361,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4393,7 +4393,7 @@
         <v>15</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4425,7 +4425,7 @@
         <v>15</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4457,7 +4457,7 @@
         <v>15</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4521,7 +4521,7 @@
         <v>15</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4553,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4585,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4649,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4681,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4745,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4777,7 +4777,7 @@
         <v>20</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4809,7 +4809,7 @@
         <v>20</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4841,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4873,7 +4873,7 @@
         <v>20</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,7 +4905,7 @@
         <v>20</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4937,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,7 +4969,7 @@
         <v>20</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5001,7 +5001,7 @@
         <v>20</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5065,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5097,7 +5097,7 @@
         <v>20</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5129,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5161,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5193,7 +5193,7 @@
         <v>20</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5225,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5257,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5289,7 +5289,7 @@
         <v>25</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5321,7 +5321,7 @@
         <v>25</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5353,7 +5353,7 @@
         <v>25</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5385,7 +5385,7 @@
         <v>25</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5417,7 +5417,7 @@
         <v>25</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5449,7 +5449,7 @@
         <v>25</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5481,7 +5481,7 @@
         <v>25</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5513,7 +5513,7 @@
         <v>25</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5545,7 +5545,7 @@
         <v>25</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5577,7 +5577,7 @@
         <v>25</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,7 +5609,7 @@
         <v>25</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5641,7 +5641,7 @@
         <v>25</v>
       </c>
       <c r="J84" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5673,7 +5673,7 @@
         <v>25</v>
       </c>
       <c r="J85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5705,7 +5705,7 @@
         <v>25</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5737,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="J87" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5769,7 +5769,7 @@
         <v>25</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5801,7 +5801,7 @@
         <v>25</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5833,7 +5833,7 @@
         <v>25</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5865,7 +5865,7 @@
         <v>25</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5897,7 +5897,7 @@
         <v>25</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5929,7 +5929,7 @@
         <v>30</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5961,7 +5961,7 @@
         <v>30</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5993,7 +5993,7 @@
         <v>30</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6025,7 +6025,7 @@
         <v>30</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6057,7 +6057,7 @@
         <v>30</v>
       </c>
       <c r="J97" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6089,7 +6089,7 @@
         <v>30</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6121,7 +6121,7 @@
         <v>30</v>
       </c>
       <c r="J99" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6132,7 +6132,7 @@
         <v>317</v>
       </c>
       <c r="C100" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="6">
         <v>4</v>
@@ -6164,7 +6164,7 @@
         <v>320</v>
       </c>
       <c r="C101" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="6">
         <v>4</v>
@@ -6196,7 +6196,7 @@
         <v>323</v>
       </c>
       <c r="C102" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="6">
         <v>4</v>
@@ -6228,7 +6228,7 @@
         <v>326</v>
       </c>
       <c r="C103" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="6">
         <v>4</v>
@@ -6260,7 +6260,7 @@
         <v>329</v>
       </c>
       <c r="C104" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="6">
         <v>4</v>
@@ -6292,7 +6292,7 @@
         <v>332</v>
       </c>
       <c r="C105" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
@@ -6324,7 +6324,7 @@
         <v>335</v>
       </c>
       <c r="C106" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="6">
         <v>4</v>
@@ -6356,7 +6356,7 @@
         <v>338</v>
       </c>
       <c r="C107" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="6">
         <v>4</v>
@@ -6388,7 +6388,7 @@
         <v>341</v>
       </c>
       <c r="C108" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="6">
         <v>4</v>
@@ -6420,7 +6420,7 @@
         <v>344</v>
       </c>
       <c r="C109" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="6">
         <v>4</v>
@@ -6452,7 +6452,7 @@
         <v>347</v>
       </c>
       <c r="C110" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="6">
         <v>4</v>
@@ -6484,7 +6484,7 @@
         <v>350</v>
       </c>
       <c r="C111" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="6">
         <v>4</v>
@@ -6516,7 +6516,7 @@
         <v>353</v>
       </c>
       <c r="C112" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="6">
         <v>4</v>
@@ -6548,7 +6548,7 @@
         <v>356</v>
       </c>
       <c r="C113" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="6">
         <v>4</v>
@@ -6580,7 +6580,7 @@
         <v>359</v>
       </c>
       <c r="C114" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="6">
         <v>4</v>
@@ -6612,7 +6612,7 @@
         <v>362</v>
       </c>
       <c r="C115" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="6">
         <v>4</v>
@@ -6644,7 +6644,7 @@
         <v>365</v>
       </c>
       <c r="C116" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="6">
         <v>4</v>
@@ -6676,7 +6676,7 @@
         <v>368</v>
       </c>
       <c r="C117" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="6">
         <v>4</v>
@@ -6708,7 +6708,7 @@
         <v>371</v>
       </c>
       <c r="C118" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="6">
         <v>4</v>
@@ -6740,7 +6740,7 @@
         <v>374</v>
       </c>
       <c r="C119" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="6">
         <v>4</v>
@@ -6772,7 +6772,7 @@
         <v>377</v>
       </c>
       <c r="C120" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="6">
         <v>4</v>
@@ -6804,7 +6804,7 @@
         <v>380</v>
       </c>
       <c r="C121" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="6">
         <v>4</v>
@@ -6836,7 +6836,7 @@
         <v>383</v>
       </c>
       <c r="C122" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="6">
         <v>4</v>
@@ -6868,7 +6868,7 @@
         <v>386</v>
       </c>
       <c r="C123" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="6">
         <v>4</v>
@@ -6900,7 +6900,7 @@
         <v>389</v>
       </c>
       <c r="C124" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="6">
         <v>4</v>
@@ -6932,7 +6932,7 @@
         <v>392</v>
       </c>
       <c r="C125" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="6">
         <v>4</v>
@@ -6964,7 +6964,7 @@
         <v>395</v>
       </c>
       <c r="C126" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" s="6">
         <v>4</v>
@@ -6996,7 +6996,7 @@
         <v>398</v>
       </c>
       <c r="C127" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="6">
         <v>4</v>
@@ -7028,7 +7028,7 @@
         <v>401</v>
       </c>
       <c r="C128" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="6">
         <v>4</v>
@@ -7060,7 +7060,7 @@
         <v>404</v>
       </c>
       <c r="C129" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="6">
         <v>4</v>
@@ -7092,7 +7092,7 @@
         <v>407</v>
       </c>
       <c r="C130" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="6">
         <v>4</v>
@@ -7124,7 +7124,7 @@
         <v>410</v>
       </c>
       <c r="C131" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" s="6">
         <v>4</v>
@@ -7156,7 +7156,7 @@
         <v>413</v>
       </c>
       <c r="C132" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="6">
         <v>4</v>
@@ -7188,7 +7188,7 @@
         <v>416</v>
       </c>
       <c r="C133" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="6">
         <v>4</v>
@@ -7220,7 +7220,7 @@
         <v>419</v>
       </c>
       <c r="C134" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" s="6">
         <v>4</v>
@@ -7252,7 +7252,7 @@
         <v>422</v>
       </c>
       <c r="C135" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" s="6">
         <v>4</v>
@@ -7284,7 +7284,7 @@
         <v>425</v>
       </c>
       <c r="C136" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" s="6">
         <v>4</v>
@@ -7316,7 +7316,7 @@
         <v>428</v>
       </c>
       <c r="C137" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="6">
         <v>4</v>
@@ -7348,7 +7348,7 @@
         <v>431</v>
       </c>
       <c r="C138" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" s="6">
         <v>4</v>
@@ -7380,7 +7380,7 @@
         <v>434</v>
       </c>
       <c r="C139" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="6">
         <v>4</v>
@@ -7412,7 +7412,7 @@
         <v>437</v>
       </c>
       <c r="C140" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="6">
         <v>4</v>
@@ -7444,7 +7444,7 @@
         <v>440</v>
       </c>
       <c r="C141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" s="6">
         <v>4</v>
@@ -7476,7 +7476,7 @@
         <v>443</v>
       </c>
       <c r="C142" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="6">
         <v>4</v>
@@ -7508,7 +7508,7 @@
         <v>446</v>
       </c>
       <c r="C143" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" s="6">
         <v>4</v>
@@ -7540,7 +7540,7 @@
         <v>449</v>
       </c>
       <c r="C144" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="6">
         <v>4</v>
@@ -7572,7 +7572,7 @@
         <v>452</v>
       </c>
       <c r="C145" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="6">
         <v>4</v>
@@ -7604,7 +7604,7 @@
         <v>455</v>
       </c>
       <c r="C146" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="6">
         <v>4</v>
@@ -7636,7 +7636,7 @@
         <v>458</v>
       </c>
       <c r="C147" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" s="6">
         <v>4</v>
@@ -7668,7 +7668,7 @@
         <v>461</v>
       </c>
       <c r="C148" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="6">
         <v>4</v>
@@ -7700,7 +7700,7 @@
         <v>464</v>
       </c>
       <c r="C149" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" s="6">
         <v>4</v>
@@ -7732,7 +7732,7 @@
         <v>467</v>
       </c>
       <c r="C150" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" s="6">
         <v>4</v>
@@ -7764,7 +7764,7 @@
         <v>470</v>
       </c>
       <c r="C151" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" s="6">
         <v>4</v>
@@ -7796,7 +7796,7 @@
         <v>473</v>
       </c>
       <c r="C152" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" s="6">
         <v>4</v>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="487">
   <si>
     <r>
       <rPr>
@@ -1598,6 +1598,14 @@
     <t>类别(0 生产 1 战斗)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1607,7 +1615,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1658,6 +1666,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1702,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1747,6 +1761,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="L151" sqref="L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2956,7 +2976,7 @@
     <col min="11" max="257" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2987,8 +3007,11 @@
       <c r="J1" s="8" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>477</v>
       </c>
@@ -3019,8 +3042,11 @@
       <c r="J2" s="14" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>40001</v>
       </c>
@@ -3051,8 +3077,11 @@
       <c r="J3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>40002</v>
       </c>
@@ -3083,8 +3112,11 @@
       <c r="J4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>40003</v>
       </c>
@@ -3115,8 +3147,11 @@
       <c r="J5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>40004</v>
       </c>
@@ -3147,8 +3182,11 @@
       <c r="J6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>40005</v>
       </c>
@@ -3179,8 +3217,11 @@
       <c r="J7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>40006</v>
       </c>
@@ -3211,8 +3252,11 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>40007</v>
       </c>
@@ -3243,8 +3287,11 @@
       <c r="J9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>40008</v>
       </c>
@@ -3275,8 +3322,11 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>40009</v>
       </c>
@@ -3307,8 +3357,11 @@
       <c r="J11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>40010</v>
       </c>
@@ -3339,8 +3392,11 @@
       <c r="J12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>40011</v>
       </c>
@@ -3371,8 +3427,11 @@
       <c r="J13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>40012</v>
       </c>
@@ -3403,8 +3462,11 @@
       <c r="J14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>40013</v>
       </c>
@@ -3435,8 +3497,11 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>40014</v>
       </c>
@@ -3467,8 +3532,11 @@
       <c r="J16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>40015</v>
       </c>
@@ -3499,8 +3567,11 @@
       <c r="J17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>40016</v>
       </c>
@@ -3531,8 +3602,11 @@
       <c r="J18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>40017</v>
       </c>
@@ -3563,8 +3637,11 @@
       <c r="J19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>40018</v>
       </c>
@@ -3595,8 +3672,11 @@
       <c r="J20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>40019</v>
       </c>
@@ -3627,8 +3707,11 @@
       <c r="J21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>40020</v>
       </c>
@@ -3659,8 +3742,11 @@
       <c r="J22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>40021</v>
       </c>
@@ -3691,8 +3777,11 @@
       <c r="J23" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>40022</v>
       </c>
@@ -3723,8 +3812,11 @@
       <c r="J24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>40023</v>
       </c>
@@ -3755,8 +3847,11 @@
       <c r="J25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>40024</v>
       </c>
@@ -3787,8 +3882,11 @@
       <c r="J26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>40025</v>
       </c>
@@ -3819,8 +3917,11 @@
       <c r="J27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>40026</v>
       </c>
@@ -3851,8 +3952,11 @@
       <c r="J28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>40027</v>
       </c>
@@ -3883,8 +3987,11 @@
       <c r="J29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>40028</v>
       </c>
@@ -3915,8 +4022,11 @@
       <c r="J30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>40029</v>
       </c>
@@ -3947,8 +4057,11 @@
       <c r="J31" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>40030</v>
       </c>
@@ -3979,8 +4092,11 @@
       <c r="J32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>40031</v>
       </c>
@@ -4011,8 +4127,11 @@
       <c r="J33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>40032</v>
       </c>
@@ -4043,8 +4162,11 @@
       <c r="J34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>40033</v>
       </c>
@@ -4075,8 +4197,11 @@
       <c r="J35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>40034</v>
       </c>
@@ -4107,8 +4232,11 @@
       <c r="J36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>40035</v>
       </c>
@@ -4139,8 +4267,11 @@
       <c r="J37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K37" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>40036</v>
       </c>
@@ -4171,8 +4302,11 @@
       <c r="J38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>40037</v>
       </c>
@@ -4203,8 +4337,11 @@
       <c r="J39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>40038</v>
       </c>
@@ -4235,8 +4372,11 @@
       <c r="J40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>40039</v>
       </c>
@@ -4267,8 +4407,11 @@
       <c r="J41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>40040</v>
       </c>
@@ -4299,8 +4442,11 @@
       <c r="J42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>40041</v>
       </c>
@@ -4331,8 +4477,11 @@
       <c r="J43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>40042</v>
       </c>
@@ -4363,8 +4512,11 @@
       <c r="J44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K44" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>40043</v>
       </c>
@@ -4395,8 +4547,11 @@
       <c r="J45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K45" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>40044</v>
       </c>
@@ -4427,8 +4582,11 @@
       <c r="J46" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K46" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>40045</v>
       </c>
@@ -4459,8 +4617,11 @@
       <c r="J47" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K47" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>40046</v>
       </c>
@@ -4491,8 +4652,11 @@
       <c r="J48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K48" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>40047</v>
       </c>
@@ -4523,8 +4687,11 @@
       <c r="J49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>40048</v>
       </c>
@@ -4555,8 +4722,11 @@
       <c r="J50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>40049</v>
       </c>
@@ -4587,8 +4757,11 @@
       <c r="J51" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>40050</v>
       </c>
@@ -4619,8 +4792,11 @@
       <c r="J52" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K52" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>40051</v>
       </c>
@@ -4651,8 +4827,11 @@
       <c r="J53" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K53" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>40052</v>
       </c>
@@ -4683,8 +4862,11 @@
       <c r="J54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>40053</v>
       </c>
@@ -4715,8 +4897,11 @@
       <c r="J55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>40054</v>
       </c>
@@ -4747,8 +4932,11 @@
       <c r="J56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>40055</v>
       </c>
@@ -4779,8 +4967,11 @@
       <c r="J57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>40056</v>
       </c>
@@ -4811,8 +5002,11 @@
       <c r="J58" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K58" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>40057</v>
       </c>
@@ -4843,8 +5037,11 @@
       <c r="J59" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>40058</v>
       </c>
@@ -4875,8 +5072,11 @@
       <c r="J60" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>40059</v>
       </c>
@@ -4907,8 +5107,11 @@
       <c r="J61" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K61" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>40060</v>
       </c>
@@ -4939,8 +5142,11 @@
       <c r="J62" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K62" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>40061</v>
       </c>
@@ -4971,8 +5177,11 @@
       <c r="J63" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>40062</v>
       </c>
@@ -5003,8 +5212,11 @@
       <c r="J64" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K64" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>40063</v>
       </c>
@@ -5035,8 +5247,11 @@
       <c r="J65" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>40064</v>
       </c>
@@ -5067,8 +5282,11 @@
       <c r="J66" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K66" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>40065</v>
       </c>
@@ -5099,8 +5317,11 @@
       <c r="J67" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K67" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>40066</v>
       </c>
@@ -5131,8 +5352,11 @@
       <c r="J68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K68" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>40067</v>
       </c>
@@ -5163,8 +5387,11 @@
       <c r="J69" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K69" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>40068</v>
       </c>
@@ -5195,8 +5422,11 @@
       <c r="J70" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K70" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>40069</v>
       </c>
@@ -5227,8 +5457,11 @@
       <c r="J71" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K71" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>40070</v>
       </c>
@@ -5259,8 +5492,11 @@
       <c r="J72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>40071</v>
       </c>
@@ -5291,8 +5527,11 @@
       <c r="J73" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K73" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>40072</v>
       </c>
@@ -5323,8 +5562,11 @@
       <c r="J74" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K74" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>40073</v>
       </c>
@@ -5355,8 +5597,11 @@
       <c r="J75" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K75" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>40074</v>
       </c>
@@ -5387,8 +5632,11 @@
       <c r="J76" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K76" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>40075</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="J77" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K77" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>40076</v>
       </c>
@@ -5451,8 +5702,11 @@
       <c r="J78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K78" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>40077</v>
       </c>
@@ -5483,8 +5737,11 @@
       <c r="J79" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K79" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>40078</v>
       </c>
@@ -5515,8 +5772,11 @@
       <c r="J80" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K80" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>40079</v>
       </c>
@@ -5547,8 +5807,11 @@
       <c r="J81" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K81" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>40080</v>
       </c>
@@ -5579,8 +5842,11 @@
       <c r="J82" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K82" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>40081</v>
       </c>
@@ -5611,8 +5877,11 @@
       <c r="J83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K83" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>40082</v>
       </c>
@@ -5643,8 +5912,11 @@
       <c r="J84" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K84" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>40083</v>
       </c>
@@ -5675,8 +5947,11 @@
       <c r="J85" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K85" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>40084</v>
       </c>
@@ -5707,8 +5982,11 @@
       <c r="J86" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>40085</v>
       </c>
@@ -5739,8 +6017,11 @@
       <c r="J87" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K87" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>40086</v>
       </c>
@@ -5771,8 +6052,11 @@
       <c r="J88" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K88" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>40087</v>
       </c>
@@ -5803,8 +6087,11 @@
       <c r="J89" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K89" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>40088</v>
       </c>
@@ -5835,8 +6122,11 @@
       <c r="J90" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K90" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>40089</v>
       </c>
@@ -5867,8 +6157,11 @@
       <c r="J91" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K91" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>40090</v>
       </c>
@@ -5899,8 +6192,11 @@
       <c r="J92" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>40091</v>
       </c>
@@ -5931,8 +6227,11 @@
       <c r="J93" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K93" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>40092</v>
       </c>
@@ -5963,8 +6262,11 @@
       <c r="J94" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>40093</v>
       </c>
@@ -5995,8 +6297,11 @@
       <c r="J95" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K95" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>40094</v>
       </c>
@@ -6027,8 +6332,11 @@
       <c r="J96" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K96" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>40095</v>
       </c>
@@ -6059,8 +6367,11 @@
       <c r="J97" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K97" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>40096</v>
       </c>
@@ -6091,8 +6402,11 @@
       <c r="J98" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>40097</v>
       </c>
@@ -6123,8 +6437,11 @@
       <c r="J99" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K99" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>40098</v>
       </c>
@@ -6155,8 +6472,11 @@
       <c r="J100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K100" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>40099</v>
       </c>
@@ -6187,8 +6507,11 @@
       <c r="J101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>40100</v>
       </c>
@@ -6219,8 +6542,11 @@
       <c r="J102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>40101</v>
       </c>
@@ -6251,8 +6577,11 @@
       <c r="J103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K103" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>40102</v>
       </c>
@@ -6283,8 +6612,11 @@
       <c r="J104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>40103</v>
       </c>
@@ -6315,8 +6647,11 @@
       <c r="J105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K105" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>40104</v>
       </c>
@@ -6347,8 +6682,11 @@
       <c r="J106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>40105</v>
       </c>
@@ -6379,8 +6717,11 @@
       <c r="J107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K107" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>40106</v>
       </c>
@@ -6411,8 +6752,11 @@
       <c r="J108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K108" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>40107</v>
       </c>
@@ -6443,8 +6787,11 @@
       <c r="J109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K109" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>40108</v>
       </c>
@@ -6475,8 +6822,11 @@
       <c r="J110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K110" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>40109</v>
       </c>
@@ -6507,8 +6857,11 @@
       <c r="J111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>40110</v>
       </c>
@@ -6539,8 +6892,11 @@
       <c r="J112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K112" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>40111</v>
       </c>
@@ -6571,8 +6927,11 @@
       <c r="J113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K113" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>40112</v>
       </c>
@@ -6603,8 +6962,11 @@
       <c r="J114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K114" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>40113</v>
       </c>
@@ -6635,8 +6997,11 @@
       <c r="J115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K115" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>40114</v>
       </c>
@@ -6667,8 +7032,11 @@
       <c r="J116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K116" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>40115</v>
       </c>
@@ -6699,8 +7067,11 @@
       <c r="J117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>40116</v>
       </c>
@@ -6731,8 +7102,11 @@
       <c r="J118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K118" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>40117</v>
       </c>
@@ -6763,8 +7137,11 @@
       <c r="J119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K119" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>40118</v>
       </c>
@@ -6795,8 +7172,11 @@
       <c r="J120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K120" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>40119</v>
       </c>
@@ -6827,8 +7207,11 @@
       <c r="J121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K121" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>40120</v>
       </c>
@@ -6859,8 +7242,11 @@
       <c r="J122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K122" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>40121</v>
       </c>
@@ -6891,8 +7277,11 @@
       <c r="J123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K123" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>40122</v>
       </c>
@@ -6923,8 +7312,11 @@
       <c r="J124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K124" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>40123</v>
       </c>
@@ -6955,8 +7347,11 @@
       <c r="J125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K125" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>40124</v>
       </c>
@@ -6987,8 +7382,11 @@
       <c r="J126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K126" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>40125</v>
       </c>
@@ -7019,8 +7417,11 @@
       <c r="J127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K127" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>40126</v>
       </c>
@@ -7051,8 +7452,11 @@
       <c r="J128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K128" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>40127</v>
       </c>
@@ -7083,8 +7487,11 @@
       <c r="J129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K129" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>40128</v>
       </c>
@@ -7115,8 +7522,11 @@
       <c r="J130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K130" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>40129</v>
       </c>
@@ -7147,8 +7557,11 @@
       <c r="J131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K131" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>40130</v>
       </c>
@@ -7179,8 +7592,11 @@
       <c r="J132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K132" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>40131</v>
       </c>
@@ -7211,8 +7627,11 @@
       <c r="J133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K133" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>40132</v>
       </c>
@@ -7243,8 +7662,11 @@
       <c r="J134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K134" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>40133</v>
       </c>
@@ -7275,8 +7697,11 @@
       <c r="J135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K135" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>40134</v>
       </c>
@@ -7307,8 +7732,11 @@
       <c r="J136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K136" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>40135</v>
       </c>
@@ -7339,8 +7767,11 @@
       <c r="J137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K137" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>40136</v>
       </c>
@@ -7371,8 +7802,11 @@
       <c r="J138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K138" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>40137</v>
       </c>
@@ -7403,8 +7837,11 @@
       <c r="J139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K139" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>40138</v>
       </c>
@@ -7435,8 +7872,11 @@
       <c r="J140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K140" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>40139</v>
       </c>
@@ -7467,8 +7907,11 @@
       <c r="J141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K141" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>40140</v>
       </c>
@@ -7499,8 +7942,11 @@
       <c r="J142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K142" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>40141</v>
       </c>
@@ -7531,8 +7977,11 @@
       <c r="J143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K143" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>40142</v>
       </c>
@@ -7563,8 +8012,11 @@
       <c r="J144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K144" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>40143</v>
       </c>
@@ -7595,8 +8047,11 @@
       <c r="J145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K145" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>40144</v>
       </c>
@@ -7627,8 +8082,11 @@
       <c r="J146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K146" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>40145</v>
       </c>
@@ -7659,8 +8117,11 @@
       <c r="J147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K147" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>40146</v>
       </c>
@@ -7691,8 +8152,11 @@
       <c r="J148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K148" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>40147</v>
       </c>
@@ -7723,8 +8187,11 @@
       <c r="J149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K149" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>40148</v>
       </c>
@@ -7755,8 +8222,11 @@
       <c r="J150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K150" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>40149</v>
       </c>
@@ -7787,8 +8257,11 @@
       <c r="J151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K151" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>40150</v>
       </c>
@@ -7818,6 +8291,9 @@
       </c>
       <c r="J152" s="1">
         <v>1</v>
+      </c>
+      <c r="K152" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/doll.xlsx
+++ b/grabDoll/config/doll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="493">
   <si>
     <r>
       <rPr>
@@ -1561,15 +1561,31 @@
   <si>
     <t>在你温柔的笑容背后，有多少泪水哀愁。</t>
   </si>
+  <si>
+    <t>金币系数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0&quot; &quot;;\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1630,7 +1646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1743,41 +1759,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="12"/>
@@ -1790,7 +1773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1815,9 +1798,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1826,9 +1806,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1860,9 +1837,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1883,9 +1857,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1911,23 +1882,23 @@
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3121,14 +3092,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="25.625" style="1" customWidth="1"/>
@@ -3139,10 +3110,13 @@
     <col min="8" max="8" width="37.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" style="1" customWidth="1"/>
-    <col min="11" max="256" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="1" customWidth="1"/>
+    <col min="14" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3176,9 +3150,14 @@
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3203,25 +3182,30 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+      <c r="L2" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="11">
         <v>40001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3239,25 +3223,30 @@
       <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="15">
-        <v>10</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="I3" s="13">
+        <v>86</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>1000</v>
       </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+      <c r="L3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="11">
         <v>40002</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3275,25 +3264,30 @@
       <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15">
-        <v>10</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="I4" s="13">
+        <v>88</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>1018</v>
       </c>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="L4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="11">
         <v>40003</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3311,25 +3305,30 @@
       <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15">
-        <v>10</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="I5" s="13">
+        <v>89</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>1037</v>
       </c>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="L5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="11">
         <v>40004</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3347,25 +3346,30 @@
       <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="15">
-        <v>10</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="I6" s="13">
+        <v>91</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>1057</v>
       </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+      <c r="L6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="11">
         <v>40005</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3383,25 +3387,30 @@
       <c r="H7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="15">
-        <v>10</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="I7" s="13">
+        <v>93</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
         <v>1077</v>
       </c>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="L7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="11">
         <v>40006</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3419,25 +3428,30 @@
       <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="15">
-        <v>10</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="I8" s="13">
+        <v>95</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>1097</v>
       </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+      <c r="L8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="11">
         <v>40007</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3455,25 +3469,30 @@
       <c r="H9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="I9" s="13">
+        <v>96</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
         <v>1118</v>
       </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+      <c r="L9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="11">
         <v>40008</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3491,25 +3510,30 @@
       <c r="H10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15">
-        <v>10</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="I10" s="13">
+        <v>98</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>1139</v>
       </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
+      <c r="L10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="11">
         <v>40009</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3527,25 +3551,30 @@
       <c r="H11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="15">
-        <v>10</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="I11" s="13">
+        <v>100</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>1160</v>
       </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
+      <c r="L11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="11">
         <v>40010</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3563,25 +3592,30 @@
       <c r="H12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="I12" s="13">
+        <v>102</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>1182</v>
       </c>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
+      <c r="L12" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="11">
         <v>40011</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3599,25 +3633,30 @@
       <c r="H13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="15">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
+      <c r="I13" s="13">
+        <v>104</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>1204</v>
       </c>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
+      <c r="L13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A14" s="11">
         <v>40012</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3635,25 +3674,30 @@
       <c r="H14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="15">
-        <v>10</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
+      <c r="I14" s="13">
+        <v>106</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>1227</v>
       </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+      <c r="L14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="11">
         <v>40013</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3671,25 +3715,30 @@
       <c r="H15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="15">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
+      <c r="I15" s="13">
+        <v>108</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>1250</v>
       </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
+      <c r="L15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="11">
         <v>40014</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3707,25 +3756,30 @@
       <c r="H16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="15">
-        <v>10</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
+      <c r="I16" s="13">
+        <v>110</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>1273</v>
       </c>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
+      <c r="L16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="11">
         <v>40015</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3743,385 +3797,440 @@
       <c r="H17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="15">
-        <v>10</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
+      <c r="I17" s="13">
+        <v>112</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
         <v>1297</v>
       </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18">
+      <c r="L17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="16">
         <v>40016</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="G18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="23">
-        <v>10</v>
-      </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24">
-        <v>1322</v>
-      </c>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18">
+      <c r="I18" s="13">
+        <v>131</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1520</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="16">
         <v>40017</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="20">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="23">
-        <v>10</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
-      <c r="K19" s="24">
-        <v>1347</v>
-      </c>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18">
+      <c r="I19" s="13">
+        <v>134</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1549</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="16">
         <v>40018</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="23">
-        <v>10</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>1372</v>
-      </c>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18">
+      <c r="I20" s="13">
+        <v>136</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1577</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="16">
         <v>40019</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="23">
-        <v>10</v>
-      </c>
-      <c r="J21" s="24">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24">
-        <v>1398</v>
-      </c>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
+      <c r="I21" s="13">
+        <v>139</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1607</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="16">
         <v>40020</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="20">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="23">
-        <v>10</v>
-      </c>
-      <c r="J22" s="24">
-        <v>0</v>
-      </c>
-      <c r="K22" s="24">
-        <v>1424</v>
-      </c>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18">
+      <c r="I22" s="13">
+        <v>141</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1637</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="16">
         <v>40021</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="23">
-        <v>10</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0</v>
-      </c>
-      <c r="K23" s="24">
-        <v>1451</v>
-      </c>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18">
+      <c r="I23" s="13">
+        <v>144</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1668</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="16">
         <v>40022</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="20">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="23">
-        <v>10</v>
-      </c>
-      <c r="J24" s="24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24">
-        <v>1478</v>
-      </c>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="26">
+      <c r="I24" s="13">
+        <v>147</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1699</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="23">
         <v>40023</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="28">
-        <v>1</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="31">
-        <v>10</v>
-      </c>
-      <c r="J25" s="32">
-        <v>0</v>
-      </c>
-      <c r="K25" s="32">
-        <v>1506</v>
-      </c>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="26">
+      <c r="I25" s="13">
+        <v>162</v>
+      </c>
+      <c r="J25" s="28">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1882</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="23">
         <v>40024</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="28">
-        <v>1</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="31">
-        <v>10</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>1534</v>
-      </c>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26">
+      <c r="I26" s="13">
+        <v>166</v>
+      </c>
+      <c r="J26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1917</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="23">
         <v>40025</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="28">
-        <v>1</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="E27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="30" t="s">
+      <c r="G27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="31">
-        <v>10</v>
-      </c>
-      <c r="J27" s="32">
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
-        <v>1563</v>
-      </c>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
+      <c r="I27" s="13">
+        <v>169</v>
+      </c>
+      <c r="J27" s="28">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1953</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="11">
         <v>40026</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="30">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4139,25 +4248,30 @@
       <c r="H28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="15">
-        <v>15</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
+      <c r="I28" s="13">
+        <v>137</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
         <v>1593</v>
       </c>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
+      <c r="L28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="11">
         <v>40027</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4175,25 +4289,30 @@
       <c r="H29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="15">
-        <v>15</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
+      <c r="I29" s="13">
+        <v>140</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
         <v>1622</v>
       </c>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
+      <c r="L29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="11">
         <v>40028</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="30">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4211,25 +4330,30 @@
       <c r="H30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="15">
-        <v>15</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
+      <c r="I30" s="13">
+        <v>143</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
         <v>1653</v>
       </c>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
+      <c r="L30" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="11">
         <v>40029</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="30">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4247,25 +4371,30 @@
       <c r="H31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="15">
-        <v>15</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
+      <c r="I31" s="13">
+        <v>145</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
         <v>1684</v>
       </c>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
+      <c r="L31" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="11">
         <v>40030</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="30">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4283,25 +4412,30 @@
       <c r="H32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="15">
-        <v>15</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
+      <c r="I32" s="13">
+        <v>148</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
         <v>1716</v>
       </c>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
+      <c r="L32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="11">
         <v>40031</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="30">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4319,25 +4453,30 @@
       <c r="H33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="15">
-        <v>15</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
+      <c r="I33" s="13">
+        <v>151</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
         <v>1748</v>
       </c>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
+      <c r="L33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="11">
         <v>40032</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="30">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -4355,25 +4494,30 @@
       <c r="H34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I34" s="15">
-        <v>15</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
+      <c r="I34" s="13">
+        <v>154</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
         <v>1781</v>
       </c>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13">
+      <c r="L34" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="11">
         <v>40033</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="30">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4391,25 +4535,30 @@
       <c r="H35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="15">
-        <v>15</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
+      <c r="I35" s="13">
+        <v>157</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
         <v>1814</v>
       </c>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13">
+      <c r="L35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="11">
         <v>40034</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="30">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -4427,25 +4576,30 @@
       <c r="H36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="15">
-        <v>15</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
+      <c r="I36" s="13">
+        <v>160</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
         <v>1848</v>
       </c>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
+      <c r="L36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="11">
         <v>40035</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="30">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4463,25 +4617,30 @@
       <c r="H37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="15">
-        <v>15</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
+      <c r="I37" s="13">
+        <v>163</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
         <v>1883</v>
       </c>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
+      <c r="L37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="11">
         <v>40036</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="30">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -4499,25 +4658,30 @@
       <c r="H38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="15">
-        <v>15</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
+      <c r="I38" s="13">
+        <v>166</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
         <v>1919</v>
       </c>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
+      <c r="L38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="11">
         <v>40037</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="30">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -4535,25 +4699,30 @@
       <c r="H39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I39" s="15">
-        <v>15</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
+      <c r="I39" s="13">
+        <v>169</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
         <v>1955</v>
       </c>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
+      <c r="L39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="11">
         <v>40038</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="30">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4571,25 +4740,30 @@
       <c r="H40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="15">
-        <v>15</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
+      <c r="I40" s="13">
+        <v>172</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
         <v>1992</v>
       </c>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
+      <c r="L40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="11">
         <v>40039</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="30">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4607,25 +4781,30 @@
       <c r="H41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="15">
-        <v>15</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="16">
+      <c r="I41" s="13">
+        <v>175</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
         <v>2029</v>
       </c>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
+      <c r="L41" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="11">
         <v>40040</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="30">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -4643,385 +4822,440 @@
       <c r="H42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="15">
-        <v>20</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="16">
+      <c r="I42" s="13">
+        <v>179</v>
+      </c>
+      <c r="J42" s="14">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
         <v>2067</v>
       </c>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18">
+      <c r="L42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="16">
         <v>40041</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="35">
-        <v>1</v>
-      </c>
-      <c r="D43" s="21" t="s">
+      <c r="C43" s="31">
+        <v>1</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="22" t="s">
+      <c r="E43" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="G43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="23">
-        <v>20</v>
-      </c>
-      <c r="J43" s="24">
-        <v>0</v>
-      </c>
-      <c r="K43" s="24">
-        <v>2106</v>
-      </c>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18">
+      <c r="I43" s="13">
+        <v>209</v>
+      </c>
+      <c r="J43" s="21">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2421</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="16">
         <v>40042</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="35">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21" t="s">
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="19" t="s">
+      <c r="G44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I44" s="23">
-        <v>20</v>
-      </c>
-      <c r="J44" s="24">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
-        <v>2146</v>
-      </c>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
+      <c r="I44" s="13">
+        <v>213</v>
+      </c>
+      <c r="J44" s="21">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2467</v>
+      </c>
+      <c r="L44" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M44" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="16">
         <v>40043</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="35">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="31">
+        <v>1</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="22" t="s">
+      <c r="E45" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="19" t="s">
+      <c r="G45" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="23">
-        <v>20</v>
-      </c>
-      <c r="J45" s="24">
-        <v>0</v>
-      </c>
-      <c r="K45" s="24">
-        <v>2186</v>
-      </c>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18">
+      <c r="I45" s="13">
+        <v>217</v>
+      </c>
+      <c r="J45" s="21">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2513</v>
+      </c>
+      <c r="L45" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="16">
         <v>40044</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="35">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="31">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="22" t="s">
+      <c r="E46" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="19" t="s">
+      <c r="G46" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="I46" s="23">
-        <v>20</v>
-      </c>
-      <c r="J46" s="24">
-        <v>0</v>
-      </c>
-      <c r="K46" s="24">
-        <v>2227</v>
-      </c>
-      <c r="L46" s="25"/>
-    </row>
-    <row r="47" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18">
+      <c r="I46" s="13">
+        <v>221</v>
+      </c>
+      <c r="J46" s="21">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2561</v>
+      </c>
+      <c r="L46" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="16">
         <v>40045</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="35">
-        <v>1</v>
-      </c>
-      <c r="D47" s="21" t="s">
+      <c r="C47" s="31">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="22" t="s">
+      <c r="E47" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="19" t="s">
+      <c r="G47" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="23">
-        <v>20</v>
-      </c>
-      <c r="J47" s="24">
-        <v>0</v>
-      </c>
-      <c r="K47" s="24">
-        <v>2269</v>
-      </c>
-      <c r="L47" s="25"/>
-    </row>
-    <row r="48" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18">
+      <c r="I47" s="13">
+        <v>225</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2609</v>
+      </c>
+      <c r="L47" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M47" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="16">
         <v>40046</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="35">
-        <v>1</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="31">
+        <v>1</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="22" t="s">
+      <c r="E48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G48" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="19" t="s">
+      <c r="G48" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="23">
-        <v>20</v>
-      </c>
-      <c r="J48" s="24">
-        <v>0</v>
-      </c>
-      <c r="K48" s="24">
-        <v>2312</v>
-      </c>
-      <c r="L48" s="25"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18">
+      <c r="I48" s="13">
+        <v>230</v>
+      </c>
+      <c r="J48" s="21">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2658</v>
+      </c>
+      <c r="L48" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="16">
         <v>40047</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="35">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="31">
+        <v>1</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="E49" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="19" t="s">
+      <c r="G49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I49" s="23">
-        <v>20</v>
-      </c>
-      <c r="J49" s="24">
-        <v>0</v>
-      </c>
-      <c r="K49" s="24">
-        <v>2355</v>
-      </c>
-      <c r="L49" s="25"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="26">
+      <c r="I49" s="13">
+        <v>234</v>
+      </c>
+      <c r="J49" s="21">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2708</v>
+      </c>
+      <c r="L49" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M49" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="23">
         <v>40048</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="36">
-        <v>1</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="32">
+        <v>1</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="29" t="s">
+      <c r="E50" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G50" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="30" t="s">
+      <c r="G50" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="I50" s="31">
-        <v>20</v>
-      </c>
-      <c r="J50" s="32">
-        <v>0</v>
-      </c>
-      <c r="K50" s="32">
-        <v>2399</v>
-      </c>
-      <c r="L50" s="33"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="26">
+      <c r="I50" s="13">
+        <v>259</v>
+      </c>
+      <c r="J50" s="28">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2998</v>
+      </c>
+      <c r="L50" s="29">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="23">
         <v>40049</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="36">
-        <v>1</v>
-      </c>
-      <c r="D51" s="27" t="s">
+      <c r="C51" s="32">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="E51" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G51" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="30" t="s">
+      <c r="G51" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="I51" s="31">
-        <v>20</v>
-      </c>
-      <c r="J51" s="32">
-        <v>0</v>
-      </c>
-      <c r="K51" s="32">
-        <v>2444</v>
-      </c>
-      <c r="L51" s="33"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="26">
+      <c r="I51" s="13">
+        <v>264</v>
+      </c>
+      <c r="J51" s="28">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3055</v>
+      </c>
+      <c r="L51" s="29">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="23">
         <v>40050</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="36">
-        <v>1</v>
-      </c>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="32">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="29" t="s">
+      <c r="E52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G52" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="30" t="s">
+      <c r="G52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="I52" s="31">
-        <v>20</v>
-      </c>
-      <c r="J52" s="32">
-        <v>0</v>
-      </c>
-      <c r="K52" s="32">
-        <v>2490</v>
-      </c>
-      <c r="L52" s="33"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="13">
+      <c r="I52" s="13">
+        <v>269</v>
+      </c>
+      <c r="J52" s="28">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3112</v>
+      </c>
+      <c r="L52" s="29">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A53" s="11">
         <v>40051</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="33">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -5039,25 +5273,30 @@
       <c r="H53" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="15">
-        <v>20</v>
-      </c>
-      <c r="J53" s="16">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
+      <c r="I53" s="13">
+        <v>219</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
         <v>2537</v>
       </c>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="13">
+      <c r="L53" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A54" s="11">
         <v>40052</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="33">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -5075,25 +5314,30 @@
       <c r="H54" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I54" s="15">
-        <v>20</v>
-      </c>
-      <c r="J54" s="16">
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
+      <c r="I54" s="13">
+        <v>223</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
         <v>2585</v>
       </c>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="13">
+      <c r="L54" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A55" s="11">
         <v>40053</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="33">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -5111,25 +5355,30 @@
       <c r="H55" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I55" s="15">
-        <v>20</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
+      <c r="I55" s="13">
+        <v>228</v>
+      </c>
+      <c r="J55" s="14">
+        <v>0</v>
+      </c>
+      <c r="K55" s="14">
         <v>2634</v>
       </c>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="13">
+      <c r="L55" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A56" s="11">
         <v>40054</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="33">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -5147,25 +5396,30 @@
       <c r="H56" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I56" s="15">
-        <v>20</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
+      <c r="I56" s="13">
+        <v>232</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="K56" s="14">
         <v>2683</v>
       </c>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="13">
+      <c r="L56" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A57" s="11">
         <v>40055</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="33">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -5183,25 +5437,30 @@
       <c r="H57" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I57" s="15">
-        <v>20</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0</v>
-      </c>
-      <c r="K57" s="16">
+      <c r="I57" s="13">
+        <v>236</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14">
         <v>2734</v>
       </c>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="13">
+      <c r="L57" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A58" s="11">
         <v>40056</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="33">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -5219,25 +5478,30 @@
       <c r="H58" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I58" s="15">
-        <v>20</v>
-      </c>
-      <c r="J58" s="16">
-        <v>0</v>
-      </c>
-      <c r="K58" s="16">
+      <c r="I58" s="13">
+        <v>241</v>
+      </c>
+      <c r="J58" s="14">
+        <v>0</v>
+      </c>
+      <c r="K58" s="14">
         <v>2785</v>
       </c>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13">
+      <c r="L58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A59" s="11">
         <v>40057</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="33">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -5255,25 +5519,30 @@
       <c r="H59" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I59" s="15">
-        <v>20</v>
-      </c>
-      <c r="J59" s="16">
-        <v>0</v>
-      </c>
-      <c r="K59" s="16">
+      <c r="I59" s="13">
+        <v>245</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
         <v>2837</v>
       </c>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13">
+      <c r="L59" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M59" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A60" s="11">
         <v>40058</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="33">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -5291,25 +5560,30 @@
       <c r="H60" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I60" s="15">
-        <v>25</v>
-      </c>
-      <c r="J60" s="16">
-        <v>0</v>
-      </c>
-      <c r="K60" s="16">
+      <c r="I60" s="13">
+        <v>250</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
+      <c r="K60" s="14">
         <v>2891</v>
       </c>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13">
+      <c r="L60" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A61" s="11">
         <v>40059</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="33">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -5327,25 +5601,30 @@
       <c r="H61" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I61" s="15">
-        <v>25</v>
-      </c>
-      <c r="J61" s="16">
-        <v>0</v>
-      </c>
-      <c r="K61" s="16">
+      <c r="I61" s="13">
+        <v>255</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="14">
         <v>2945</v>
       </c>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="13">
+      <c r="L61" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M61" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A62" s="11">
         <v>40060</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="33">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5363,25 +5642,30 @@
       <c r="H62" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I62" s="15">
-        <v>25</v>
-      </c>
-      <c r="J62" s="16">
-        <v>0</v>
-      </c>
-      <c r="K62" s="16">
+      <c r="I62" s="13">
+        <v>259</v>
+      </c>
+      <c r="J62" s="14">
+        <v>0</v>
+      </c>
+      <c r="K62" s="14">
         <v>3000</v>
       </c>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13">
+      <c r="L62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A63" s="11">
         <v>40061</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="33">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -5399,25 +5683,30 @@
       <c r="H63" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I63" s="15">
-        <v>25</v>
-      </c>
-      <c r="J63" s="16">
-        <v>0</v>
-      </c>
-      <c r="K63" s="16">
+      <c r="I63" s="13">
+        <v>264</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="14">
         <v>3057</v>
       </c>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13">
+      <c r="L63" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M63" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A64" s="11">
         <v>40062</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="33">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -5435,25 +5724,30 @@
       <c r="H64" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I64" s="15">
-        <v>25</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0</v>
-      </c>
-      <c r="K64" s="16">
+      <c r="I64" s="13">
+        <v>269</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
         <v>3114</v>
       </c>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13">
+      <c r="L64" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M64" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A65" s="11">
         <v>40063</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="33">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5471,25 +5765,30 @@
       <c r="H65" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I65" s="15">
-        <v>25</v>
-      </c>
-      <c r="J65" s="16">
-        <v>0</v>
-      </c>
-      <c r="K65" s="16">
+      <c r="I65" s="13">
+        <v>274</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14">
         <v>3173</v>
       </c>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13">
+      <c r="L65" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A66" s="11">
         <v>40064</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="33">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -5507,25 +5806,30 @@
       <c r="H66" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I66" s="15">
-        <v>25</v>
-      </c>
-      <c r="J66" s="16">
-        <v>0</v>
-      </c>
-      <c r="K66" s="16">
+      <c r="I66" s="13">
+        <v>279</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14">
         <v>3232</v>
       </c>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13">
+      <c r="L66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A67" s="11">
         <v>40065</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="33">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -5543,385 +5847,440 @@
       <c r="H67" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I67" s="15">
-        <v>25</v>
-      </c>
-      <c r="J67" s="16">
-        <v>0</v>
-      </c>
-      <c r="K67" s="16">
+      <c r="I67" s="13">
+        <v>285</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14">
         <v>3293</v>
       </c>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="18">
+      <c r="L67" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M67" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A68" s="16">
         <v>40066</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C68" s="38">
-        <v>1</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="34">
+        <v>1</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="22" t="s">
+      <c r="E68" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="G68" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="21" t="s">
+      <c r="G68" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="I68" s="23">
-        <v>25</v>
-      </c>
-      <c r="J68" s="24">
-        <v>0</v>
-      </c>
-      <c r="K68" s="24">
-        <v>3355</v>
-      </c>
-      <c r="L68" s="25"/>
-    </row>
-    <row r="69" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="18">
+      <c r="I68" s="13">
+        <v>334</v>
+      </c>
+      <c r="J68" s="21">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>3858</v>
+      </c>
+      <c r="L68" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M68" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A69" s="16">
         <v>40067</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="38">
-        <v>1</v>
-      </c>
-      <c r="D69" s="21" t="s">
+      <c r="C69" s="34">
+        <v>1</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E69" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="E69" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="G69" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="21" t="s">
+      <c r="G69" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I69" s="23">
-        <v>25</v>
-      </c>
-      <c r="J69" s="24">
-        <v>0</v>
-      </c>
-      <c r="K69" s="24">
-        <v>3418</v>
-      </c>
-      <c r="L69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="18">
+      <c r="I69" s="13">
+        <v>340</v>
+      </c>
+      <c r="J69" s="21">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>3930</v>
+      </c>
+      <c r="L69" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M69" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A70" s="16">
         <v>40068</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C70" s="38">
-        <v>1</v>
-      </c>
-      <c r="D70" s="21" t="s">
+      <c r="C70" s="34">
+        <v>1</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="22" t="s">
+      <c r="E70" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="G70" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="21" t="s">
+      <c r="G70" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="I70" s="23">
-        <v>25</v>
-      </c>
-      <c r="J70" s="24">
-        <v>0</v>
-      </c>
-      <c r="K70" s="24">
-        <v>3483</v>
-      </c>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="18">
+      <c r="I70" s="13">
+        <v>346</v>
+      </c>
+      <c r="J70" s="21">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>4005</v>
+      </c>
+      <c r="L70" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M70" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A71" s="16">
         <v>40069</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="38">
-        <v>1</v>
-      </c>
-      <c r="D71" s="21" t="s">
+      <c r="C71" s="34">
+        <v>1</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="22" t="s">
+      <c r="E71" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="G71" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H71" s="21" t="s">
+      <c r="G71" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="I71" s="23">
-        <v>25</v>
-      </c>
-      <c r="J71" s="24">
-        <v>0</v>
-      </c>
-      <c r="K71" s="24">
-        <v>3548</v>
-      </c>
-      <c r="L71" s="25"/>
-    </row>
-    <row r="72" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="18">
+      <c r="I71" s="13">
+        <v>353</v>
+      </c>
+      <c r="J71" s="21">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4080</v>
+      </c>
+      <c r="L71" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M71" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A72" s="16">
         <v>40070</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="38">
-        <v>1</v>
-      </c>
-      <c r="D72" s="21" t="s">
+      <c r="C72" s="34">
+        <v>1</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="22" t="s">
+      <c r="E72" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G72" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="21" t="s">
+      <c r="G72" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="I72" s="23">
-        <v>25</v>
-      </c>
-      <c r="J72" s="24">
-        <v>0</v>
-      </c>
-      <c r="K72" s="24">
-        <v>3615</v>
-      </c>
-      <c r="L72" s="25"/>
-    </row>
-    <row r="73" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18">
+      <c r="I72" s="13">
+        <v>359</v>
+      </c>
+      <c r="J72" s="21">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>4157</v>
+      </c>
+      <c r="L72" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M72" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A73" s="16">
         <v>40071</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="38">
-        <v>1</v>
-      </c>
-      <c r="D73" s="21" t="s">
+      <c r="C73" s="34">
+        <v>1</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="22" t="s">
+      <c r="E73" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G73" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="21" t="s">
+      <c r="G73" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="I73" s="23">
-        <v>25</v>
-      </c>
-      <c r="J73" s="24">
-        <v>0</v>
-      </c>
-      <c r="K73" s="24">
-        <v>3683</v>
-      </c>
-      <c r="L73" s="25"/>
-    </row>
-    <row r="74" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18">
+      <c r="I73" s="13">
+        <v>366</v>
+      </c>
+      <c r="J73" s="21">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>4235</v>
+      </c>
+      <c r="L73" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M73" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A74" s="16">
         <v>40072</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="38">
-        <v>1</v>
-      </c>
-      <c r="D74" s="21" t="s">
+      <c r="C74" s="34">
+        <v>1</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" s="22" t="s">
+      <c r="E74" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="G74" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="21" t="s">
+      <c r="G74" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I74" s="23">
-        <v>25</v>
-      </c>
-      <c r="J74" s="24">
-        <v>0</v>
-      </c>
-      <c r="K74" s="24">
-        <v>3752</v>
-      </c>
-      <c r="L74" s="25"/>
-    </row>
-    <row r="75" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="26">
+      <c r="I74" s="13">
+        <v>373</v>
+      </c>
+      <c r="J74" s="21">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4314</v>
+      </c>
+      <c r="L74" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M74" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A75" s="23">
         <v>40073</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="39">
-        <v>1</v>
-      </c>
-      <c r="D75" s="27" t="s">
+      <c r="C75" s="35">
+        <v>1</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="29" t="s">
+      <c r="E75" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="G75" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="27" t="s">
+      <c r="G75" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I75" s="31">
-        <v>25</v>
-      </c>
-      <c r="J75" s="32">
-        <v>0</v>
-      </c>
-      <c r="K75" s="32">
-        <v>3822</v>
-      </c>
-      <c r="L75" s="33"/>
-    </row>
-    <row r="76" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="26">
+      <c r="I75" s="13">
+        <v>413</v>
+      </c>
+      <c r="J75" s="28">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4777</v>
+      </c>
+      <c r="L75" s="29">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A76" s="23">
         <v>40074</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C76" s="39">
-        <v>1</v>
-      </c>
-      <c r="D76" s="27" t="s">
+      <c r="C76" s="35">
+        <v>1</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E76" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="29" t="s">
+      <c r="E76" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="G76" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="27" t="s">
+      <c r="G76" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="I76" s="31">
-        <v>25</v>
-      </c>
-      <c r="J76" s="32">
-        <v>0</v>
-      </c>
-      <c r="K76" s="32">
-        <v>3894</v>
-      </c>
-      <c r="L76" s="33"/>
-    </row>
-    <row r="77" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="26">
+      <c r="I76" s="13">
+        <v>421</v>
+      </c>
+      <c r="J76" s="28">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>4867</v>
+      </c>
+      <c r="L76" s="29">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A77" s="23">
         <v>40075</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C77" s="39">
-        <v>1</v>
-      </c>
-      <c r="D77" s="27" t="s">
+      <c r="C77" s="35">
+        <v>1</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="29" t="s">
+      <c r="E77" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="30" t="s">
+      <c r="G77" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="I77" s="31">
-        <v>25</v>
-      </c>
-      <c r="J77" s="32">
-        <v>0</v>
-      </c>
-      <c r="K77" s="32">
-        <v>3968</v>
-      </c>
-      <c r="L77" s="33"/>
-    </row>
-    <row r="78" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="13">
+      <c r="I77" s="13">
+        <v>429</v>
+      </c>
+      <c r="J77" s="28">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4960</v>
+      </c>
+      <c r="L77" s="29">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A78" s="11">
         <v>40076</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="33">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -5939,25 +6298,30 @@
       <c r="H78" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="I78" s="15">
-        <v>30</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="16">
+      <c r="I78" s="13">
+        <v>350</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="K78" s="14">
         <v>4042</v>
       </c>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13">
+      <c r="L78" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A79" s="11">
         <v>40077</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="33">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -5975,25 +6339,30 @@
       <c r="H79" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I79" s="15">
-        <v>30</v>
-      </c>
-      <c r="J79" s="16">
-        <v>0</v>
-      </c>
-      <c r="K79" s="16">
+      <c r="I79" s="13">
+        <v>356</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14">
         <v>4118</v>
       </c>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="13">
+      <c r="L79" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M79" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A80" s="11">
         <v>40078</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="33">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -6011,25 +6380,30 @@
       <c r="H80" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I80" s="15">
-        <v>30</v>
-      </c>
-      <c r="J80" s="16">
-        <v>0</v>
-      </c>
-      <c r="K80" s="16">
+      <c r="I80" s="13">
+        <v>363</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="14">
         <v>4196</v>
       </c>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="13">
+      <c r="L80" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M80" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A81" s="11">
         <v>40079</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="33">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -6047,25 +6421,30 @@
       <c r="H81" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I81" s="15">
-        <v>30</v>
-      </c>
-      <c r="J81" s="16">
-        <v>0</v>
-      </c>
-      <c r="K81" s="16">
+      <c r="I81" s="13">
+        <v>370</v>
+      </c>
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="14">
         <v>4275</v>
       </c>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="13">
+      <c r="L81" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A82" s="11">
         <v>40080</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="33">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -6083,25 +6462,30 @@
       <c r="H82" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I82" s="15">
-        <v>30</v>
-      </c>
-      <c r="J82" s="16">
-        <v>0</v>
-      </c>
-      <c r="K82" s="16">
+      <c r="I82" s="13">
+        <v>377</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14">
         <v>4355</v>
       </c>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="13">
+      <c r="L82" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M82" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A83" s="11">
         <v>40081</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="33">
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -6119,25 +6503,30 @@
       <c r="H83" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I83" s="15">
-        <v>30</v>
-      </c>
-      <c r="J83" s="16">
-        <v>0</v>
-      </c>
-      <c r="K83" s="16">
+      <c r="I83" s="13">
+        <v>384</v>
+      </c>
+      <c r="J83" s="14">
+        <v>0</v>
+      </c>
+      <c r="K83" s="14">
         <v>4437</v>
       </c>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="13">
+      <c r="L83" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M83" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A84" s="11">
         <v>40082</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="33">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -6155,25 +6544,30 @@
       <c r="H84" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I84" s="15">
-        <v>30</v>
-      </c>
-      <c r="J84" s="16">
-        <v>0</v>
-      </c>
-      <c r="K84" s="16">
+      <c r="I84" s="13">
+        <v>391</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0</v>
+      </c>
+      <c r="K84" s="14">
         <v>4520</v>
       </c>
-      <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="13">
+      <c r="L84" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M84" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A85" s="11">
         <v>40083</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85" s="33">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -6191,25 +6585,30 @@
       <c r="H85" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I85" s="15">
-        <v>30</v>
-      </c>
-      <c r="J85" s="16">
-        <v>0</v>
-      </c>
-      <c r="K85" s="16">
+      <c r="I85" s="13">
+        <v>398</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14">
         <v>4605</v>
       </c>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="13">
+      <c r="L85" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M85" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A86" s="11">
         <v>40084</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C86" s="37">
+      <c r="C86" s="33">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -6227,25 +6626,30 @@
       <c r="H86" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I86" s="15">
-        <v>30</v>
-      </c>
-      <c r="J86" s="16">
-        <v>0</v>
-      </c>
-      <c r="K86" s="16">
+      <c r="I86" s="13">
+        <v>406</v>
+      </c>
+      <c r="J86" s="14">
+        <v>0</v>
+      </c>
+      <c r="K86" s="14">
         <v>4692</v>
       </c>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="13">
+      <c r="L86" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M86" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A87" s="11">
         <v>40085</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C87" s="33">
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -6263,25 +6667,30 @@
       <c r="H87" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I87" s="15">
-        <v>30</v>
-      </c>
-      <c r="J87" s="16">
-        <v>0</v>
-      </c>
-      <c r="K87" s="16">
+      <c r="I87" s="13">
+        <v>413</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0</v>
+      </c>
+      <c r="K87" s="14">
         <v>4780</v>
       </c>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="13">
+      <c r="L87" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A88" s="11">
         <v>40086</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C88" s="33">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -6299,25 +6708,30 @@
       <c r="H88" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I88" s="15">
-        <v>30</v>
-      </c>
-      <c r="J88" s="16">
-        <v>0</v>
-      </c>
-      <c r="K88" s="16">
+      <c r="I88" s="13">
+        <v>421</v>
+      </c>
+      <c r="J88" s="14">
+        <v>0</v>
+      </c>
+      <c r="K88" s="14">
         <v>4870</v>
       </c>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="13">
+      <c r="L88" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M88" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A89" s="11">
         <v>40087</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="33">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -6335,25 +6749,30 @@
       <c r="H89" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I89" s="15">
-        <v>30</v>
-      </c>
-      <c r="J89" s="16">
-        <v>0</v>
-      </c>
-      <c r="K89" s="16">
+      <c r="I89" s="13">
+        <v>429</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="14">
         <v>4961</v>
       </c>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="13">
+      <c r="L89" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M89" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A90" s="11">
         <v>40088</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C90" s="37">
+      <c r="C90" s="33">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -6371,25 +6790,30 @@
       <c r="H90" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I90" s="15">
-        <v>30</v>
-      </c>
-      <c r="J90" s="16">
-        <v>0</v>
-      </c>
-      <c r="K90" s="16">
+      <c r="I90" s="13">
+        <v>437</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0</v>
+      </c>
+      <c r="K90" s="14">
         <v>5055</v>
       </c>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="13">
+      <c r="L90" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M90" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A91" s="11">
         <v>40089</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C91" s="37">
+      <c r="C91" s="33">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -6407,25 +6831,30 @@
       <c r="H91" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I91" s="15">
-        <v>30</v>
-      </c>
-      <c r="J91" s="16">
-        <v>0</v>
-      </c>
-      <c r="K91" s="16">
+      <c r="I91" s="13">
+        <v>445</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0</v>
+      </c>
+      <c r="K91" s="14">
         <v>5150</v>
       </c>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="13">
+      <c r="L91" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A92" s="11">
         <v>40090</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C92" s="37">
+      <c r="C92" s="33">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -6443,385 +6872,440 @@
       <c r="H92" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I92" s="15">
-        <v>30</v>
-      </c>
-      <c r="J92" s="16">
-        <v>0</v>
-      </c>
-      <c r="K92" s="16">
+      <c r="I92" s="13">
+        <v>454</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0</v>
+      </c>
+      <c r="K92" s="14">
         <v>5247</v>
       </c>
-      <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="18">
+      <c r="L92" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M92" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A93" s="16">
         <v>40091</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C93" s="38">
-        <v>1</v>
-      </c>
-      <c r="D93" s="21" t="s">
+      <c r="C93" s="34">
+        <v>1</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F93" s="22" t="s">
+      <c r="E93" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="G93" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="19" t="s">
+      <c r="G93" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="I93" s="23">
-        <v>30</v>
-      </c>
-      <c r="J93" s="24">
-        <v>0</v>
-      </c>
-      <c r="K93" s="24">
-        <v>5345</v>
-      </c>
-      <c r="L93" s="25"/>
-    </row>
-    <row r="94" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="18">
+      <c r="I93" s="13">
+        <v>532</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>6146</v>
+      </c>
+      <c r="L93" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M93" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A94" s="16">
         <v>40092</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="38">
-        <v>1</v>
-      </c>
-      <c r="D94" s="21" t="s">
+      <c r="C94" s="34">
+        <v>1</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" s="22" t="s">
+      <c r="E94" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="19" t="s">
+      <c r="G94" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="I94" s="23">
-        <v>30</v>
-      </c>
-      <c r="J94" s="24">
-        <v>0</v>
-      </c>
-      <c r="K94" s="24">
-        <v>5446</v>
-      </c>
-      <c r="L94" s="25"/>
-    </row>
-    <row r="95" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="18">
+      <c r="I94" s="13">
+        <v>542</v>
+      </c>
+      <c r="J94" s="21">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>6262</v>
+      </c>
+      <c r="L94" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M94" s="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A95" s="16">
         <v>40093</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C95" s="38">
-        <v>1</v>
-      </c>
-      <c r="D95" s="21" t="s">
+      <c r="C95" s="34">
+        <v>1</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F95" s="22" t="s">
+      <c r="E95" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="G95" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="19" t="s">
+      <c r="G95" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="I95" s="23">
-        <v>30</v>
-      </c>
-      <c r="J95" s="24">
-        <v>0</v>
-      </c>
-      <c r="K95" s="24">
-        <v>5548</v>
-      </c>
-      <c r="L95" s="25"/>
-    </row>
-    <row r="96" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="18">
+      <c r="I95" s="13">
+        <v>552</v>
+      </c>
+      <c r="J95" s="21">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>6380</v>
+      </c>
+      <c r="L95" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M95" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A96" s="16">
         <v>40094</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="38">
-        <v>1</v>
-      </c>
-      <c r="D96" s="21" t="s">
+      <c r="C96" s="34">
+        <v>1</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E96" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="22" t="s">
+      <c r="E96" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G96" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="19" t="s">
+      <c r="G96" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="I96" s="23">
-        <v>30</v>
-      </c>
-      <c r="J96" s="24">
-        <v>0</v>
-      </c>
-      <c r="K96" s="24">
-        <v>5652</v>
-      </c>
-      <c r="L96" s="25"/>
-    </row>
-    <row r="97" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="18">
+      <c r="I96" s="13">
+        <v>562</v>
+      </c>
+      <c r="J96" s="21">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>6499</v>
+      </c>
+      <c r="L96" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M96" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A97" s="16">
         <v>40095</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C97" s="38">
-        <v>1</v>
-      </c>
-      <c r="D97" s="21" t="s">
+      <c r="C97" s="34">
+        <v>1</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E97" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="22" t="s">
+      <c r="E97" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="G97" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="21" t="s">
+      <c r="G97" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="I97" s="23">
-        <v>30</v>
-      </c>
-      <c r="J97" s="24">
-        <v>0</v>
-      </c>
-      <c r="K97" s="24">
-        <v>5759</v>
-      </c>
-      <c r="L97" s="25"/>
-    </row>
-    <row r="98" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="18">
+      <c r="I97" s="13">
+        <v>573</v>
+      </c>
+      <c r="J97" s="21">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>6622</v>
+      </c>
+      <c r="L97" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M97" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A98" s="16">
         <v>40096</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C98" s="38">
-        <v>1</v>
-      </c>
-      <c r="D98" s="21" t="s">
+      <c r="C98" s="34">
+        <v>1</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="22" t="s">
+      <c r="E98" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="G98" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="21" t="s">
+      <c r="G98" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I98" s="23">
-        <v>30</v>
-      </c>
-      <c r="J98" s="24">
-        <v>0</v>
-      </c>
-      <c r="K98" s="24">
-        <v>5867</v>
-      </c>
-      <c r="L98" s="25"/>
-    </row>
-    <row r="99" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="18">
+      <c r="I98" s="13">
+        <v>584</v>
+      </c>
+      <c r="J98" s="21">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>6747</v>
+      </c>
+      <c r="L98" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M98" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A99" s="16">
         <v>40097</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C99" s="38">
-        <v>1</v>
-      </c>
-      <c r="D99" s="21" t="s">
+      <c r="C99" s="34">
+        <v>1</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" s="22" t="s">
+      <c r="E99" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G99" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="21" t="s">
+      <c r="G99" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="I99" s="23">
-        <v>30</v>
-      </c>
-      <c r="J99" s="24">
-        <v>0</v>
-      </c>
-      <c r="K99" s="24">
-        <v>5977</v>
-      </c>
-      <c r="L99" s="25"/>
-    </row>
-    <row r="100" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="26">
+      <c r="I99" s="13">
+        <v>595</v>
+      </c>
+      <c r="J99" s="21">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>6873</v>
+      </c>
+      <c r="L99" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M99" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A100" s="23">
         <v>40098</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C100" s="39">
-        <v>1</v>
-      </c>
-      <c r="D100" s="27" t="s">
+      <c r="C100" s="35">
+        <v>1</v>
+      </c>
+      <c r="D100" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" s="29" t="s">
+      <c r="E100" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="G100" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="27" t="s">
+      <c r="G100" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="I100" s="31">
-        <v>30</v>
-      </c>
-      <c r="J100" s="32">
-        <v>0</v>
-      </c>
-      <c r="K100" s="32">
-        <v>6090</v>
-      </c>
-      <c r="L100" s="33"/>
-    </row>
-    <row r="101" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="26">
+      <c r="I100" s="13">
+        <v>659</v>
+      </c>
+      <c r="J100" s="28">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>7612</v>
+      </c>
+      <c r="L100" s="29">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A101" s="23">
         <v>40099</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C101" s="39">
-        <v>1</v>
-      </c>
-      <c r="D101" s="27" t="s">
+      <c r="C101" s="35">
+        <v>1</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E101" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" s="29" t="s">
+      <c r="E101" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="G101" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" s="27" t="s">
+      <c r="G101" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="I101" s="31">
-        <v>30</v>
-      </c>
-      <c r="J101" s="32">
-        <v>0</v>
-      </c>
-      <c r="K101" s="32">
-        <v>6204</v>
-      </c>
-      <c r="L101" s="33"/>
-    </row>
-    <row r="102" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="26">
+      <c r="I101" s="13">
+        <v>671</v>
+      </c>
+      <c r="J101" s="28">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>7755</v>
+      </c>
+      <c r="L101" s="29">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A102" s="23">
         <v>40100</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C102" s="39">
-        <v>1</v>
-      </c>
-      <c r="D102" s="27" t="s">
+      <c r="C102" s="35">
+        <v>1</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" s="29" t="s">
+      <c r="E102" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="G102" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="27" t="s">
+      <c r="G102" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="I102" s="31">
-        <v>30</v>
-      </c>
-      <c r="J102" s="32">
-        <v>0</v>
-      </c>
-      <c r="K102" s="32">
-        <v>6321</v>
-      </c>
-      <c r="L102" s="33"/>
-    </row>
-    <row r="103" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="13">
+      <c r="I102" s="13">
+        <v>684</v>
+      </c>
+      <c r="J102" s="28">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>7901</v>
+      </c>
+      <c r="L102" s="29">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A103" s="11">
         <v>40101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C103" s="37">
+      <c r="C103" s="33">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -6839,25 +7323,30 @@
       <c r="H103" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I103" s="15">
-        <v>30</v>
-      </c>
-      <c r="J103" s="16">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16">
+      <c r="I103" s="13">
+        <v>557</v>
+      </c>
+      <c r="J103" s="14">
+        <v>0</v>
+      </c>
+      <c r="K103" s="14">
         <v>6440</v>
       </c>
-      <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="13">
+      <c r="L103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M103" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A104" s="11">
         <v>40102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C104" s="37">
+      <c r="C104" s="33">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -6875,25 +7364,30 @@
       <c r="H104" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I104" s="15">
-        <v>30</v>
-      </c>
-      <c r="J104" s="16">
-        <v>0</v>
-      </c>
-      <c r="K104" s="16">
+      <c r="I104" s="13">
+        <v>568</v>
+      </c>
+      <c r="J104" s="14">
+        <v>0</v>
+      </c>
+      <c r="K104" s="14">
         <v>6561</v>
       </c>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="13">
+      <c r="L104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M104" s="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A105" s="11">
         <v>40103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C105" s="37">
+      <c r="C105" s="33">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -6911,25 +7405,30 @@
       <c r="H105" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I105" s="15">
-        <v>30</v>
-      </c>
-      <c r="J105" s="16">
-        <v>0</v>
-      </c>
-      <c r="K105" s="16">
+      <c r="I105" s="13">
+        <v>578</v>
+      </c>
+      <c r="J105" s="14">
+        <v>0</v>
+      </c>
+      <c r="K105" s="14">
         <v>6684</v>
       </c>
-      <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="13">
+      <c r="L105" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M105" s="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A106" s="11">
         <v>40104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C106" s="37">
+      <c r="C106" s="33">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -6947,25 +7446,30 @@
       <c r="H106" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I106" s="15">
-        <v>30</v>
-      </c>
-      <c r="J106" s="16">
-        <v>0</v>
-      </c>
-      <c r="K106" s="16">
+      <c r="I106" s="13">
+        <v>589</v>
+      </c>
+      <c r="J106" s="14">
+        <v>0</v>
+      </c>
+      <c r="K106" s="14">
         <v>6810</v>
       </c>
-      <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="13">
+      <c r="L106" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M106" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A107" s="11">
         <v>40105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="37">
+      <c r="C107" s="33">
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -6983,25 +7487,30 @@
       <c r="H107" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I107" s="15">
-        <v>30</v>
-      </c>
-      <c r="J107" s="16">
-        <v>0</v>
-      </c>
-      <c r="K107" s="16">
+      <c r="I107" s="13">
+        <v>600</v>
+      </c>
+      <c r="J107" s="14">
+        <v>0</v>
+      </c>
+      <c r="K107" s="14">
         <v>6938</v>
       </c>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="13">
+      <c r="L107" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M107" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A108" s="11">
         <v>40106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C108" s="37">
+      <c r="C108" s="33">
         <v>1</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -7019,25 +7528,30 @@
       <c r="H108" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I108" s="15">
-        <v>30</v>
-      </c>
-      <c r="J108" s="16">
-        <v>0</v>
-      </c>
-      <c r="K108" s="16">
+      <c r="I108" s="13">
+        <v>612</v>
+      </c>
+      <c r="J108" s="14">
+        <v>0</v>
+      </c>
+      <c r="K108" s="14">
         <v>7068</v>
       </c>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="13">
+      <c r="L108" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M108" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A109" s="11">
         <v>40107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C109" s="33">
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -7055,25 +7569,30 @@
       <c r="H109" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I109" s="15">
-        <v>30</v>
-      </c>
-      <c r="J109" s="16">
-        <v>0</v>
-      </c>
-      <c r="K109" s="16">
+      <c r="I109" s="13">
+        <v>623</v>
+      </c>
+      <c r="J109" s="14">
+        <v>0</v>
+      </c>
+      <c r="K109" s="14">
         <v>7201</v>
       </c>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="13">
+      <c r="L109" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M109" s="1">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A110" s="11">
         <v>40108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C110" s="37">
+      <c r="C110" s="33">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -7091,25 +7610,30 @@
       <c r="H110" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I110" s="15">
-        <v>30</v>
-      </c>
-      <c r="J110" s="16">
-        <v>0</v>
-      </c>
-      <c r="K110" s="16">
+      <c r="I110" s="13">
+        <v>635</v>
+      </c>
+      <c r="J110" s="14">
+        <v>0</v>
+      </c>
+      <c r="K110" s="14">
         <v>7336</v>
       </c>
-      <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="13">
+      <c r="L110" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M110" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A111" s="11">
         <v>40109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C111" s="33">
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -7127,25 +7651,30 @@
       <c r="H111" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I111" s="15">
-        <v>30</v>
-      </c>
-      <c r="J111" s="16">
-        <v>0</v>
-      </c>
-      <c r="K111" s="16">
+      <c r="I111" s="13">
+        <v>647</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="14">
         <v>7474</v>
       </c>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="13">
+      <c r="L111" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M111" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A112" s="11">
         <v>40110</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="33">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -7163,25 +7692,30 @@
       <c r="H112" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I112" s="15">
-        <v>30</v>
-      </c>
-      <c r="J112" s="16">
-        <v>0</v>
-      </c>
-      <c r="K112" s="16">
+      <c r="I112" s="13">
+        <v>659</v>
+      </c>
+      <c r="J112" s="14">
+        <v>0</v>
+      </c>
+      <c r="K112" s="14">
         <v>7615</v>
       </c>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="13">
+      <c r="L112" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M112" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A113" s="11">
         <v>40111</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C113" s="33">
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -7199,25 +7733,30 @@
       <c r="H113" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I113" s="15">
-        <v>30</v>
-      </c>
-      <c r="J113" s="16">
-        <v>0</v>
-      </c>
-      <c r="K113" s="16">
+      <c r="I113" s="13">
+        <v>671</v>
+      </c>
+      <c r="J113" s="14">
+        <v>0</v>
+      </c>
+      <c r="K113" s="14">
         <v>7758</v>
       </c>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="13">
+      <c r="L113" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M113" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A114" s="11">
         <v>40112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="33">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -7235,25 +7774,30 @@
       <c r="H114" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I114" s="15">
-        <v>30</v>
-      </c>
-      <c r="J114" s="16">
-        <v>0</v>
-      </c>
-      <c r="K114" s="16">
+      <c r="I114" s="13">
+        <v>684</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0</v>
+      </c>
+      <c r="K114" s="14">
         <v>7904</v>
       </c>
-      <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="13">
+      <c r="L114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M114" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A115" s="11">
         <v>40113</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="33">
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -7271,25 +7815,30 @@
       <c r="H115" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I115" s="15">
-        <v>30</v>
-      </c>
-      <c r="J115" s="16">
-        <v>0</v>
-      </c>
-      <c r="K115" s="16">
+      <c r="I115" s="13">
+        <v>697</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0</v>
+      </c>
+      <c r="K115" s="14">
         <v>8053</v>
       </c>
-      <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="13">
+      <c r="L115" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M115" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A116" s="11">
         <v>40114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C116" s="33">
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -7307,25 +7856,30 @@
       <c r="H116" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I116" s="15">
-        <v>30</v>
-      </c>
-      <c r="J116" s="16">
-        <v>0</v>
-      </c>
-      <c r="K116" s="16">
+      <c r="I116" s="13">
+        <v>710</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0</v>
+      </c>
+      <c r="K116" s="14">
         <v>8204</v>
       </c>
-      <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="13">
+      <c r="L116" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M116" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A117" s="11">
         <v>40115</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C117" s="33">
         <v>1</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -7343,385 +7897,440 @@
       <c r="H117" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I117" s="15">
-        <v>30</v>
-      </c>
-      <c r="J117" s="16">
-        <v>0</v>
-      </c>
-      <c r="K117" s="16">
+      <c r="I117" s="13">
+        <v>723</v>
+      </c>
+      <c r="J117" s="14">
+        <v>0</v>
+      </c>
+      <c r="K117" s="14">
         <v>8358</v>
       </c>
-      <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="18">
+      <c r="L117" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M117" s="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A118" s="16">
         <v>40116</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="C118" s="38">
-        <v>1</v>
-      </c>
-      <c r="D118" s="21" t="s">
+      <c r="C118" s="34">
+        <v>1</v>
+      </c>
+      <c r="D118" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E118" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F118" s="22" t="s">
+      <c r="E118" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="G118" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" s="21" t="s">
+      <c r="G118" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="I118" s="23">
-        <v>40</v>
-      </c>
-      <c r="J118" s="24">
-        <v>0</v>
-      </c>
-      <c r="K118" s="24">
-        <v>8515</v>
-      </c>
-      <c r="L118" s="25"/>
-    </row>
-    <row r="119" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="18">
+      <c r="I118" s="13">
+        <v>847</v>
+      </c>
+      <c r="J118" s="21">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>9792</v>
+      </c>
+      <c r="L118" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M118" s="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A119" s="16">
         <v>40117</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C119" s="38">
-        <v>1</v>
-      </c>
-      <c r="D119" s="21" t="s">
+      <c r="C119" s="34">
+        <v>1</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E119" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F119" s="22" t="s">
+      <c r="E119" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="G119" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H119" s="21" t="s">
+      <c r="G119" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="I119" s="23">
-        <v>40</v>
-      </c>
-      <c r="J119" s="24">
-        <v>0</v>
-      </c>
-      <c r="K119" s="24">
-        <v>8675</v>
-      </c>
-      <c r="L119" s="25"/>
-    </row>
-    <row r="120" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="18">
+      <c r="I119" s="13">
+        <v>863</v>
+      </c>
+      <c r="J119" s="21">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>9976</v>
+      </c>
+      <c r="L119" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M119" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A120" s="16">
         <v>40118</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C120" s="38">
-        <v>1</v>
-      </c>
-      <c r="D120" s="21" t="s">
+      <c r="C120" s="34">
+        <v>1</v>
+      </c>
+      <c r="D120" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E120" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="22" t="s">
+      <c r="E120" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="G120" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="21" t="s">
+      <c r="G120" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="I120" s="23">
-        <v>40</v>
-      </c>
-      <c r="J120" s="24">
-        <v>0</v>
-      </c>
-      <c r="K120" s="24">
-        <v>8839</v>
-      </c>
-      <c r="L120" s="25"/>
-    </row>
-    <row r="121" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="18">
+      <c r="I120" s="13">
+        <v>880</v>
+      </c>
+      <c r="J120" s="21">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>10164</v>
+      </c>
+      <c r="L120" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M120" s="1">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A121" s="16">
         <v>40119</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="38">
-        <v>1</v>
-      </c>
-      <c r="D121" s="21" t="s">
+      <c r="C121" s="34">
+        <v>1</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F121" s="22" t="s">
+      <c r="E121" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="G121" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="21" t="s">
+      <c r="G121" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="I121" s="23">
-        <v>40</v>
-      </c>
-      <c r="J121" s="24">
-        <v>0</v>
-      </c>
-      <c r="K121" s="24">
-        <v>9005</v>
-      </c>
-      <c r="L121" s="25"/>
-    </row>
-    <row r="122" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="18">
+      <c r="I121" s="13">
+        <v>896</v>
+      </c>
+      <c r="J121" s="21">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>10355</v>
+      </c>
+      <c r="L121" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M121" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A122" s="16">
         <v>40120</v>
       </c>
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C122" s="38">
-        <v>1</v>
-      </c>
-      <c r="D122" s="21" t="s">
+      <c r="C122" s="34">
+        <v>1</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F122" s="22" t="s">
+      <c r="E122" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F122" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="G122" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="21" t="s">
+      <c r="G122" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="I122" s="23">
-        <v>40</v>
-      </c>
-      <c r="J122" s="24">
-        <v>0</v>
-      </c>
-      <c r="K122" s="24">
-        <v>9174</v>
-      </c>
-      <c r="L122" s="25"/>
-    </row>
-    <row r="123" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="18">
+      <c r="I122" s="13">
+        <v>913</v>
+      </c>
+      <c r="J122" s="21">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>10550</v>
+      </c>
+      <c r="L122" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M122" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A123" s="16">
         <v>40121</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C123" s="38">
-        <v>1</v>
-      </c>
-      <c r="D123" s="21" t="s">
+      <c r="C123" s="34">
+        <v>1</v>
+      </c>
+      <c r="D123" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F123" s="22" t="s">
+      <c r="E123" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="G123" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="21" t="s">
+      <c r="G123" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="I123" s="23">
-        <v>40</v>
-      </c>
-      <c r="J123" s="24">
-        <v>0</v>
-      </c>
-      <c r="K123" s="24">
-        <v>9347</v>
-      </c>
-      <c r="L123" s="25"/>
-    </row>
-    <row r="124" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="18">
+      <c r="I123" s="13">
+        <v>930</v>
+      </c>
+      <c r="J123" s="21">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>10749</v>
+      </c>
+      <c r="L123" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M123" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A124" s="16">
         <v>40122</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B124" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="C124" s="38">
-        <v>1</v>
-      </c>
-      <c r="D124" s="21" t="s">
+      <c r="C124" s="34">
+        <v>1</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E124" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F124" s="22" t="s">
+      <c r="E124" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" s="21" t="s">
+      <c r="G124" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="I124" s="23">
-        <v>40</v>
-      </c>
-      <c r="J124" s="24">
-        <v>0</v>
-      </c>
-      <c r="K124" s="24">
-        <v>9522</v>
-      </c>
-      <c r="L124" s="25"/>
-    </row>
-    <row r="125" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="26">
+      <c r="I124" s="13">
+        <v>948</v>
+      </c>
+      <c r="J124" s="21">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>10950</v>
+      </c>
+      <c r="L124" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M124" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A125" s="23">
         <v>40123</v>
       </c>
-      <c r="B125" s="27" t="s">
+      <c r="B125" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C125" s="39">
-        <v>1</v>
-      </c>
-      <c r="D125" s="27" t="s">
+      <c r="C125" s="35">
+        <v>1</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E125" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F125" s="29" t="s">
+      <c r="E125" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="G125" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="27" t="s">
+      <c r="G125" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="I125" s="31">
-        <v>40</v>
-      </c>
-      <c r="J125" s="32">
-        <v>0</v>
-      </c>
-      <c r="K125" s="32">
-        <v>9701</v>
-      </c>
-      <c r="L125" s="33"/>
-    </row>
-    <row r="126" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="26">
+      <c r="I125" s="13">
+        <v>1050</v>
+      </c>
+      <c r="J125" s="28">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>12126</v>
+      </c>
+      <c r="L125" s="29">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A126" s="23">
         <v>40124</v>
       </c>
-      <c r="B126" s="27" t="s">
+      <c r="B126" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C126" s="39">
-        <v>1</v>
-      </c>
-      <c r="D126" s="27" t="s">
+      <c r="C126" s="35">
+        <v>1</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E126" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" s="29" t="s">
+      <c r="E126" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="G126" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="27" t="s">
+      <c r="G126" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="I126" s="31">
-        <v>40</v>
-      </c>
-      <c r="J126" s="32">
-        <v>0</v>
-      </c>
-      <c r="K126" s="32">
-        <v>9884</v>
-      </c>
-      <c r="L126" s="33"/>
-    </row>
-    <row r="127" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="26">
+      <c r="I126" s="13">
+        <v>1069</v>
+      </c>
+      <c r="J126" s="28">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>12355</v>
+      </c>
+      <c r="L126" s="29">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A127" s="23">
         <v>40125</v>
       </c>
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C127" s="39">
-        <v>1</v>
-      </c>
-      <c r="D127" s="27" t="s">
+      <c r="C127" s="35">
+        <v>1</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E127" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F127" s="29" t="s">
+      <c r="E127" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="G127" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="27" t="s">
+      <c r="G127" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="I127" s="40">
-        <v>40</v>
-      </c>
-      <c r="J127" s="32">
-        <v>0</v>
-      </c>
-      <c r="K127" s="32">
-        <v>10069</v>
-      </c>
-      <c r="L127" s="33"/>
-    </row>
-    <row r="128" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="13">
+      <c r="I127" s="13">
+        <v>1089</v>
+      </c>
+      <c r="J127" s="28">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>12586</v>
+      </c>
+      <c r="L127" s="29">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A128" s="11">
         <v>41001</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C128" s="14">
+      <c r="C128" s="12">
         <v>0</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -7739,25 +8348,30 @@
       <c r="H128" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="I128" s="41">
-        <v>10</v>
-      </c>
-      <c r="J128" s="16">
-        <v>5</v>
-      </c>
-      <c r="K128" s="16">
+      <c r="I128" s="36">
+        <v>0</v>
+      </c>
+      <c r="J128" s="14">
+        <v>50</v>
+      </c>
+      <c r="K128" s="14">
         <v>1000</v>
       </c>
-      <c r="L128" s="42"/>
-    </row>
-    <row r="129" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="13">
+      <c r="L128" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M128" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A129" s="11">
         <v>41002</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="12">
         <v>0</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -7775,25 +8389,30 @@
       <c r="H129" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="I129" s="15">
-        <v>10</v>
-      </c>
-      <c r="J129" s="16">
-        <v>5</v>
-      </c>
-      <c r="K129" s="16">
+      <c r="I129" s="36">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>53</v>
+      </c>
+      <c r="K129" s="14">
         <v>1100</v>
       </c>
-      <c r="L129" s="42"/>
-    </row>
-    <row r="130" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="13">
+      <c r="L129" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M129" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A130" s="11">
         <v>41003</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="12">
         <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -7811,25 +8430,30 @@
       <c r="H130" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I130" s="15">
-        <v>10</v>
-      </c>
-      <c r="J130" s="16">
-        <v>5</v>
-      </c>
-      <c r="K130" s="16">
+      <c r="I130" s="36">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>56</v>
+      </c>
+      <c r="K130" s="14">
         <v>1210</v>
       </c>
-      <c r="L130" s="42"/>
-    </row>
-    <row r="131" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="13">
+      <c r="L130" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M130" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A131" s="11">
         <v>41004</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="12">
         <v>0</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -7847,25 +8471,30 @@
       <c r="H131" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="I131" s="15">
-        <v>10</v>
-      </c>
-      <c r="J131" s="16">
-        <v>5</v>
-      </c>
-      <c r="K131" s="16">
+      <c r="I131" s="36">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>59</v>
+      </c>
+      <c r="K131" s="14">
         <v>1331</v>
       </c>
-      <c r="L131" s="42"/>
-    </row>
-    <row r="132" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="13">
+      <c r="L131" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M131" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A132" s="11">
         <v>41005</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C132" s="12">
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -7883,25 +8512,30 @@
       <c r="H132" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I132" s="15">
-        <v>10</v>
-      </c>
-      <c r="J132" s="16">
-        <v>5</v>
-      </c>
-      <c r="K132" s="16">
+      <c r="I132" s="36">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>63</v>
+      </c>
+      <c r="K132" s="14">
         <v>1464</v>
       </c>
-      <c r="L132" s="42"/>
-    </row>
-    <row r="133" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="13">
+      <c r="L132" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A133" s="11">
         <v>41006</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C133" s="34">
+      <c r="C133" s="30">
         <v>0</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -7919,25 +8553,30 @@
       <c r="H133" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="I133" s="15">
-        <v>15</v>
-      </c>
-      <c r="J133" s="16">
-        <v>5</v>
-      </c>
-      <c r="K133" s="16">
+      <c r="I133" s="36">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>66</v>
+      </c>
+      <c r="K133" s="14">
         <v>1610</v>
       </c>
-      <c r="L133" s="42"/>
-    </row>
-    <row r="134" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="13">
+      <c r="L133" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M133" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A134" s="11">
         <v>41007</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C134" s="34">
+      <c r="C134" s="30">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -7955,25 +8594,30 @@
       <c r="H134" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="I134" s="15">
-        <v>15</v>
-      </c>
-      <c r="J134" s="16">
-        <v>5</v>
-      </c>
-      <c r="K134" s="16">
+      <c r="I134" s="36">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>70</v>
+      </c>
+      <c r="K134" s="14">
         <v>1771</v>
       </c>
-      <c r="L134" s="42"/>
-    </row>
-    <row r="135" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="13">
+      <c r="L134" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M134" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A135" s="11">
         <v>41008</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C135" s="34">
+      <c r="C135" s="30">
         <v>0</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -7991,25 +8635,30 @@
       <c r="H135" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I135" s="15">
-        <v>15</v>
-      </c>
-      <c r="J135" s="16">
-        <v>5</v>
-      </c>
-      <c r="K135" s="16">
+      <c r="I135" s="36">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>75</v>
+      </c>
+      <c r="K135" s="14">
         <v>1948</v>
       </c>
-      <c r="L135" s="42"/>
-    </row>
-    <row r="136" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="13">
+      <c r="L135" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M135" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A136" s="11">
         <v>41009</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C136" s="34">
+      <c r="C136" s="30">
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -8027,25 +8676,30 @@
       <c r="H136" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I136" s="15">
-        <v>15</v>
-      </c>
-      <c r="J136" s="16">
-        <v>5</v>
-      </c>
-      <c r="K136" s="16">
+      <c r="I136" s="36">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>79</v>
+      </c>
+      <c r="K136" s="14">
         <v>2143</v>
       </c>
-      <c r="L136" s="42"/>
-    </row>
-    <row r="137" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="13">
+      <c r="L136" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M136" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A137" s="11">
         <v>41010</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C137" s="34">
+      <c r="C137" s="30">
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -8063,25 +8717,30 @@
       <c r="H137" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I137" s="15">
-        <v>15</v>
-      </c>
-      <c r="J137" s="16">
-        <v>5</v>
-      </c>
-      <c r="K137" s="16">
+      <c r="I137" s="36">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>84</v>
+      </c>
+      <c r="K137" s="14">
         <v>2357</v>
       </c>
-      <c r="L137" s="42"/>
-    </row>
-    <row r="138" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="13">
+      <c r="L137" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M137" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A138" s="11">
         <v>41011</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C138" s="37">
+      <c r="C138" s="33">
         <v>0</v>
       </c>
       <c r="D138" s="4" t="s">
@@ -8099,25 +8758,30 @@
       <c r="H138" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I138" s="15">
-        <v>20</v>
-      </c>
-      <c r="J138" s="16">
-        <v>5</v>
-      </c>
-      <c r="K138" s="16">
+      <c r="I138" s="36">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>89</v>
+      </c>
+      <c r="K138" s="14">
         <v>2593</v>
       </c>
-      <c r="L138" s="42"/>
-    </row>
-    <row r="139" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="13">
+      <c r="L138" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M138" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A139" s="11">
         <v>41012</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C139" s="37">
+      <c r="C139" s="33">
         <v>0</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -8135,25 +8799,30 @@
       <c r="H139" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="I139" s="15">
-        <v>20</v>
-      </c>
-      <c r="J139" s="16">
-        <v>5</v>
-      </c>
-      <c r="K139" s="16">
+      <c r="I139" s="36">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>94</v>
+      </c>
+      <c r="K139" s="14">
         <v>2853</v>
       </c>
-      <c r="L139" s="42"/>
-    </row>
-    <row r="140" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="13">
+      <c r="L139" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M139" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A140" s="11">
         <v>41013</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C140" s="37">
+      <c r="C140" s="33">
         <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -8171,25 +8840,30 @@
       <c r="H140" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="I140" s="15">
-        <v>20</v>
-      </c>
-      <c r="J140" s="16">
-        <v>5</v>
-      </c>
-      <c r="K140" s="16">
+      <c r="I140" s="36">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>100</v>
+      </c>
+      <c r="K140" s="14">
         <v>3138</v>
       </c>
-      <c r="L140" s="42"/>
-    </row>
-    <row r="141" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="13">
+      <c r="L140" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M140" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A141" s="11">
         <v>41014</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="37">
+      <c r="C141" s="33">
         <v>0</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -8207,25 +8881,30 @@
       <c r="H141" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="I141" s="15">
-        <v>25</v>
-      </c>
-      <c r="J141" s="16">
-        <v>5</v>
-      </c>
-      <c r="K141" s="16">
+      <c r="I141" s="36">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>106</v>
+      </c>
+      <c r="K141" s="14">
         <v>3452</v>
       </c>
-      <c r="L141" s="42"/>
-    </row>
-    <row r="142" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="13">
+      <c r="L141" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M141" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A142" s="11">
         <v>41015</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C142" s="37">
+      <c r="C142" s="33">
         <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -8243,25 +8922,30 @@
       <c r="H142" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="I142" s="15">
-        <v>25</v>
-      </c>
-      <c r="J142" s="16">
-        <v>5</v>
-      </c>
-      <c r="K142" s="16">
+      <c r="I142" s="36">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>113</v>
+      </c>
+      <c r="K142" s="14">
         <v>3797</v>
       </c>
-      <c r="L142" s="42"/>
-    </row>
-    <row r="143" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="13">
+      <c r="L142" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M142" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A143" s="11">
         <v>41016</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C143" s="37">
+      <c r="C143" s="33">
         <v>0</v>
       </c>
       <c r="D143" s="4" t="s">
@@ -8279,25 +8963,30 @@
       <c r="H143" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I143" s="15">
-        <v>30</v>
-      </c>
-      <c r="J143" s="16">
-        <v>5</v>
-      </c>
-      <c r="K143" s="16">
+      <c r="I143" s="36">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>119</v>
+      </c>
+      <c r="K143" s="14">
         <v>4177</v>
       </c>
-      <c r="L143" s="42"/>
-    </row>
-    <row r="144" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="13">
+      <c r="L143" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M143" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A144" s="11">
         <v>41017</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C144" s="37">
+      <c r="C144" s="33">
         <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -8315,25 +9004,30 @@
       <c r="H144" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I144" s="15">
-        <v>30</v>
-      </c>
-      <c r="J144" s="16">
-        <v>5</v>
-      </c>
-      <c r="K144" s="16">
+      <c r="I144" s="36">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>127</v>
+      </c>
+      <c r="K144" s="14">
         <v>4594</v>
       </c>
-      <c r="L144" s="42"/>
-    </row>
-    <row r="145" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="13">
+      <c r="L144" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M144" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A145" s="11">
         <v>41018</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C145" s="37">
+      <c r="C145" s="33">
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -8351,25 +9045,30 @@
       <c r="H145" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I145" s="15">
-        <v>30</v>
-      </c>
-      <c r="J145" s="16">
-        <v>5</v>
-      </c>
-      <c r="K145" s="16">
+      <c r="I145" s="36">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>134</v>
+      </c>
+      <c r="K145" s="14">
         <v>5054</v>
       </c>
-      <c r="L145" s="42"/>
-    </row>
-    <row r="146" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="13">
+      <c r="L145" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M145" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A146" s="11">
         <v>41019</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C146" s="37">
+      <c r="C146" s="33">
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -8387,25 +9086,30 @@
       <c r="H146" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="I146" s="15">
-        <v>30</v>
-      </c>
-      <c r="J146" s="16">
-        <v>1</v>
-      </c>
-      <c r="K146" s="16">
+      <c r="I146" s="36">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>142</v>
+      </c>
+      <c r="K146" s="14">
         <v>5559</v>
       </c>
-      <c r="L146" s="42"/>
-    </row>
-    <row r="147" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="13">
+      <c r="L146" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M146" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A147" s="11">
         <v>41020</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C147" s="37">
+      <c r="C147" s="33">
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -8423,25 +9127,30 @@
       <c r="H147" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I147" s="15">
-        <v>30</v>
-      </c>
-      <c r="J147" s="16">
-        <v>1</v>
-      </c>
-      <c r="K147" s="16">
+      <c r="I147" s="36">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>151</v>
+      </c>
+      <c r="K147" s="14">
         <v>6115</v>
       </c>
-      <c r="L147" s="42"/>
-    </row>
-    <row r="148" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="13">
+      <c r="L147" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M147" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A148" s="11">
         <v>41021</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="37">
+      <c r="C148" s="33">
         <v>0</v>
       </c>
       <c r="D148" s="4" t="s">
@@ -8459,25 +9168,30 @@
       <c r="H148" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="I148" s="15">
-        <v>30</v>
-      </c>
-      <c r="J148" s="16">
-        <v>1</v>
-      </c>
-      <c r="K148" s="16">
+      <c r="I148" s="36">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>160</v>
+      </c>
+      <c r="K148" s="14">
         <v>6727</v>
       </c>
-      <c r="L148" s="42"/>
-    </row>
-    <row r="149" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="13">
+      <c r="L148" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M148" s="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A149" s="11">
         <v>41022</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C149" s="37">
+      <c r="C149" s="33">
         <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -8495,25 +9209,30 @@
       <c r="H149" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I149" s="15">
-        <v>30</v>
-      </c>
-      <c r="J149" s="16">
-        <v>1</v>
-      </c>
-      <c r="K149" s="16">
+      <c r="I149" s="36">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>169</v>
+      </c>
+      <c r="K149" s="14">
         <v>7400</v>
       </c>
-      <c r="L149" s="42"/>
-    </row>
-    <row r="150" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="13">
+      <c r="L149" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M149" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A150" s="11">
         <v>41023</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C150" s="37">
+      <c r="C150" s="33">
         <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -8531,25 +9250,30 @@
       <c r="H150" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I150" s="15">
-        <v>30</v>
-      </c>
-      <c r="J150" s="16">
-        <v>1</v>
-      </c>
-      <c r="K150" s="16">
+      <c r="I150" s="36">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>180</v>
+      </c>
+      <c r="K150" s="14">
         <v>8140</v>
       </c>
-      <c r="L150" s="42"/>
-    </row>
-    <row r="151" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="13">
+      <c r="L150" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M150" s="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A151" s="11">
         <v>41024</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C151" s="37">
+      <c r="C151" s="33">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -8567,25 +9291,30 @@
       <c r="H151" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I151" s="15">
-        <v>30</v>
-      </c>
-      <c r="J151" s="16">
-        <v>1</v>
-      </c>
-      <c r="K151" s="16">
+      <c r="I151" s="36">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>190</v>
+      </c>
+      <c r="K151" s="14">
         <v>8954</v>
       </c>
-      <c r="L151" s="42"/>
-    </row>
-    <row r="152" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="13">
+      <c r="L151" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M151" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="A152" s="11">
         <v>41025</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C152" s="37">
+      <c r="C152" s="33">
         <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -8603,16 +9332,21 @@
       <c r="H152" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I152" s="43">
-        <v>30</v>
-      </c>
-      <c r="J152" s="44">
-        <v>1</v>
-      </c>
-      <c r="K152" s="44">
+      <c r="I152" s="36">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>202</v>
+      </c>
+      <c r="K152" s="38">
         <v>9500</v>
       </c>
-      <c r="L152" s="45"/>
+      <c r="L152" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="M152" s="1">
+        <v>843</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
